--- a/Attendence.xlsx
+++ b/Attendence.xlsx
@@ -1,79 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fop project\facerecog\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView activeTab="3" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet name="Calculus" sheetId="1" r:id="rId1"/>
-    <sheet name="Fundamentals of Programming" sheetId="2" r:id="rId2"/>
-    <sheet name="English" sheetId="3" r:id="rId3"/>
-    <sheet name="Discreate Maths" sheetId="4" r:id="rId4"/>
-    <sheet name="Islamiat" sheetId="5" r:id="rId5"/>
-    <sheet name="Physics" sheetId="6" r:id="rId6"/>
+    <sheet name="Calculus" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Fundamentals of Programming" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="English" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Discrete Maths" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Islamiat" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Physics" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="8">
-  <si>
-    <t>Ghulam Muhammad</t>
-  </si>
-  <si>
-    <t>Muhammad Abdullah Bilal</t>
-  </si>
-  <si>
-    <t>Muhammad Umer Zia</t>
-  </si>
-  <si>
-    <t>Noor-ul-Huda</t>
-  </si>
-  <si>
-    <t>Osama Akhtar</t>
-  </si>
-  <si>
-    <t>Names/Dates:</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -89,27 +56,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -375,883 +333,1004 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:AF7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="73" zoomScaleNormal="73">
       <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="25.42578125" style="1" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" style="1" width="25.44140625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="3">
+    <row customFormat="1" r="1" s="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Names/Dates:</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="n">
         <v>43800</v>
       </c>
-      <c r="C1" s="3">
+      <c r="C1" s="3" t="n">
         <v>43801</v>
       </c>
-      <c r="D1" s="3">
+      <c r="D1" s="3" t="n">
         <v>43802</v>
       </c>
-      <c r="E1" s="3">
+      <c r="E1" s="3" t="n">
         <v>43803</v>
       </c>
-      <c r="F1" s="3">
+      <c r="F1" s="3" t="n">
         <v>43804</v>
       </c>
-      <c r="G1" s="3">
+      <c r="G1" s="3" t="n">
         <v>43805</v>
       </c>
-      <c r="H1" s="3">
+      <c r="H1" s="3" t="n">
         <v>43806</v>
       </c>
-      <c r="I1" s="3">
+      <c r="I1" s="3" t="n">
         <v>43807</v>
       </c>
-      <c r="J1" s="3">
+      <c r="J1" s="3" t="n">
         <v>43808</v>
       </c>
-      <c r="K1" s="3">
+      <c r="K1" s="3" t="n">
         <v>43809</v>
       </c>
-      <c r="L1" s="3">
+      <c r="L1" s="3" t="n">
         <v>43810</v>
       </c>
-      <c r="M1" s="3">
+      <c r="M1" s="3" t="n">
         <v>43811</v>
       </c>
-      <c r="N1" s="3">
+      <c r="N1" s="3" t="n">
         <v>43812</v>
       </c>
-      <c r="O1" s="3">
+      <c r="O1" s="3" t="n">
         <v>43813</v>
       </c>
-      <c r="P1" s="3">
+      <c r="P1" s="3" t="n">
         <v>43814</v>
       </c>
-      <c r="Q1" s="3">
+      <c r="Q1" s="3" t="n">
         <v>43815</v>
       </c>
-      <c r="R1" s="3">
+      <c r="R1" s="3" t="n">
         <v>43816</v>
       </c>
-      <c r="S1" s="3">
+      <c r="S1" s="3" t="n">
         <v>43817</v>
       </c>
-      <c r="T1" s="3">
+      <c r="T1" s="3" t="n">
         <v>43818</v>
       </c>
-      <c r="U1" s="3">
+      <c r="U1" s="3" t="n">
         <v>43819</v>
       </c>
-      <c r="V1" s="3">
+      <c r="V1" s="3" t="n">
         <v>43820</v>
       </c>
-      <c r="W1" s="3">
+      <c r="W1" s="3" t="n">
         <v>43821</v>
       </c>
-      <c r="X1" s="3">
+      <c r="X1" s="3" t="n">
         <v>43822</v>
       </c>
-      <c r="Y1" s="3">
+      <c r="Y1" s="3" t="n">
         <v>43823</v>
       </c>
-      <c r="Z1" s="3">
+      <c r="Z1" s="3" t="n">
         <v>43824</v>
       </c>
-      <c r="AA1" s="3">
+      <c r="AA1" s="3" t="n">
         <v>43825</v>
       </c>
-      <c r="AB1" s="3">
+      <c r="AB1" s="3" t="n">
         <v>43826</v>
       </c>
-      <c r="AC1" s="3">
+      <c r="AC1" s="3" t="n">
         <v>43827</v>
       </c>
-      <c r="AD1" s="3">
+      <c r="AD1" s="3" t="n">
         <v>43828</v>
       </c>
-      <c r="AE1" s="3">
+      <c r="AE1" s="3" t="n">
         <v>43829</v>
       </c>
-      <c r="AF1" s="3">
+      <c r="AF1" s="3" t="n">
         <v>43830</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="M2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="M4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Ghulam Muhammad</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>Muhammad Abdullah Bilal</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>Muhammad Umer Zia</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>Noor-ul-Huda</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>Osama Akhtar</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:AF7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" width="24.44140625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="3">
+    <row customFormat="1" r="1" s="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Names/Dates:</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="n">
         <v>43800</v>
       </c>
-      <c r="C1" s="3">
+      <c r="C1" s="3" t="n">
         <v>43801</v>
       </c>
-      <c r="D1" s="3">
+      <c r="D1" s="3" t="n">
         <v>43802</v>
       </c>
-      <c r="E1" s="3">
+      <c r="E1" s="3" t="n">
         <v>43803</v>
       </c>
-      <c r="F1" s="3">
+      <c r="F1" s="3" t="n">
         <v>43804</v>
       </c>
-      <c r="G1" s="3">
+      <c r="G1" s="3" t="n">
         <v>43805</v>
       </c>
-      <c r="H1" s="3">
+      <c r="H1" s="3" t="n">
         <v>43806</v>
       </c>
-      <c r="I1" s="3">
+      <c r="I1" s="3" t="n">
         <v>43807</v>
       </c>
-      <c r="J1" s="3">
+      <c r="J1" s="3" t="n">
         <v>43808</v>
       </c>
-      <c r="K1" s="3">
+      <c r="K1" s="3" t="n">
         <v>43809</v>
       </c>
-      <c r="L1" s="3">
+      <c r="L1" s="3" t="n">
         <v>43810</v>
       </c>
-      <c r="M1" s="3">
+      <c r="M1" s="3" t="n">
         <v>43811</v>
       </c>
-      <c r="N1" s="3">
+      <c r="N1" s="3" t="n">
         <v>43812</v>
       </c>
-      <c r="O1" s="3">
+      <c r="O1" s="3" t="n">
         <v>43813</v>
       </c>
-      <c r="P1" s="3">
+      <c r="P1" s="3" t="n">
         <v>43814</v>
       </c>
-      <c r="Q1" s="3">
+      <c r="Q1" s="3" t="n">
         <v>43815</v>
       </c>
-      <c r="R1" s="3">
+      <c r="R1" s="3" t="n">
         <v>43816</v>
       </c>
-      <c r="S1" s="3">
+      <c r="S1" s="3" t="n">
         <v>43817</v>
       </c>
-      <c r="T1" s="3">
+      <c r="T1" s="3" t="n">
         <v>43818</v>
       </c>
-      <c r="U1" s="3">
+      <c r="U1" s="3" t="n">
         <v>43819</v>
       </c>
-      <c r="V1" s="3">
+      <c r="V1" s="3" t="n">
         <v>43820</v>
       </c>
-      <c r="W1" s="3">
+      <c r="W1" s="3" t="n">
         <v>43821</v>
       </c>
-      <c r="X1" s="3">
+      <c r="X1" s="3" t="n">
         <v>43822</v>
       </c>
-      <c r="Y1" s="3">
+      <c r="Y1" s="3" t="n">
         <v>43823</v>
       </c>
-      <c r="Z1" s="3">
+      <c r="Z1" s="3" t="n">
         <v>43824</v>
       </c>
-      <c r="AA1" s="3">
+      <c r="AA1" s="3" t="n">
         <v>43825</v>
       </c>
-      <c r="AB1" s="3">
+      <c r="AB1" s="3" t="n">
         <v>43826</v>
       </c>
-      <c r="AC1" s="3">
+      <c r="AC1" s="3" t="n">
         <v>43827</v>
       </c>
-      <c r="AD1" s="3">
+      <c r="AD1" s="3" t="n">
         <v>43828</v>
       </c>
-      <c r="AE1" s="3">
+      <c r="AE1" s="3" t="n">
         <v>43829</v>
       </c>
-      <c r="AF1" s="3">
+      <c r="AF1" s="3" t="n">
         <v>43830</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Ghulam Muhammad</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>Muhammad Abdullah Bilal</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>Muhammad Umer Zia</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>Noor-ul-Huda</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>Osama Akhtar</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:AF7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="24.5703125" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" width="24.5546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="3">
+    <row customFormat="1" r="1" s="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Names/Dates:</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="n">
         <v>43800</v>
       </c>
-      <c r="C1" s="3">
+      <c r="C1" s="3" t="n">
         <v>43801</v>
       </c>
-      <c r="D1" s="3">
+      <c r="D1" s="3" t="n">
         <v>43802</v>
       </c>
-      <c r="E1" s="3">
+      <c r="E1" s="3" t="n">
         <v>43803</v>
       </c>
-      <c r="F1" s="3">
+      <c r="F1" s="3" t="n">
         <v>43804</v>
       </c>
-      <c r="G1" s="3">
+      <c r="G1" s="3" t="n">
         <v>43805</v>
       </c>
-      <c r="H1" s="3">
+      <c r="H1" s="3" t="n">
         <v>43806</v>
       </c>
-      <c r="I1" s="3">
+      <c r="I1" s="3" t="n">
         <v>43807</v>
       </c>
-      <c r="J1" s="3">
+      <c r="J1" s="3" t="n">
         <v>43808</v>
       </c>
-      <c r="K1" s="3">
+      <c r="K1" s="3" t="n">
         <v>43809</v>
       </c>
-      <c r="L1" s="3">
+      <c r="L1" s="3" t="n">
         <v>43810</v>
       </c>
-      <c r="M1" s="3">
+      <c r="M1" s="3" t="n">
         <v>43811</v>
       </c>
-      <c r="N1" s="3">
+      <c r="N1" s="3" t="n">
         <v>43812</v>
       </c>
-      <c r="O1" s="3">
+      <c r="O1" s="3" t="n">
         <v>43813</v>
       </c>
-      <c r="P1" s="3">
+      <c r="P1" s="3" t="n">
         <v>43814</v>
       </c>
-      <c r="Q1" s="3">
+      <c r="Q1" s="3" t="n">
         <v>43815</v>
       </c>
-      <c r="R1" s="3">
+      <c r="R1" s="3" t="n">
         <v>43816</v>
       </c>
-      <c r="S1" s="3">
+      <c r="S1" s="3" t="n">
         <v>43817</v>
       </c>
-      <c r="T1" s="3">
+      <c r="T1" s="3" t="n">
         <v>43818</v>
       </c>
-      <c r="U1" s="3">
+      <c r="U1" s="3" t="n">
         <v>43819</v>
       </c>
-      <c r="V1" s="3">
+      <c r="V1" s="3" t="n">
         <v>43820</v>
       </c>
-      <c r="W1" s="3">
+      <c r="W1" s="3" t="n">
         <v>43821</v>
       </c>
-      <c r="X1" s="3">
+      <c r="X1" s="3" t="n">
         <v>43822</v>
       </c>
-      <c r="Y1" s="3">
+      <c r="Y1" s="3" t="n">
         <v>43823</v>
       </c>
-      <c r="Z1" s="3">
+      <c r="Z1" s="3" t="n">
         <v>43824</v>
       </c>
-      <c r="AA1" s="3">
+      <c r="AA1" s="3" t="n">
         <v>43825</v>
       </c>
-      <c r="AB1" s="3">
+      <c r="AB1" s="3" t="n">
         <v>43826</v>
       </c>
-      <c r="AC1" s="3">
+      <c r="AC1" s="3" t="n">
         <v>43827</v>
       </c>
-      <c r="AD1" s="3">
+      <c r="AD1" s="3" t="n">
         <v>43828</v>
       </c>
-      <c r="AE1" s="3">
+      <c r="AE1" s="3" t="n">
         <v>43829</v>
       </c>
-      <c r="AF1" s="3">
+      <c r="AF1" s="3" t="n">
         <v>43830</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Ghulam Muhammad</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>Muhammad Abdullah Bilal</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>Muhammad Umer Zia</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>Noor-ul-Huda</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>Osama Akhtar</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AF7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="25"/>
+  </cols>
+  <sheetData>
+    <row customFormat="1" r="1" s="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Names/Dates:</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="n">
+        <v>43800</v>
+      </c>
+      <c r="C1" s="3" t="n">
+        <v>43801</v>
+      </c>
+      <c r="D1" s="3" t="n">
+        <v>43802</v>
+      </c>
+      <c r="E1" s="3" t="n">
+        <v>43803</v>
+      </c>
+      <c r="F1" s="3" t="n">
+        <v>43804</v>
+      </c>
+      <c r="G1" s="3" t="n">
+        <v>43805</v>
+      </c>
+      <c r="H1" s="3" t="n">
+        <v>43806</v>
+      </c>
+      <c r="I1" s="3" t="n">
+        <v>43807</v>
+      </c>
+      <c r="J1" s="3" t="n">
+        <v>43808</v>
+      </c>
+      <c r="K1" s="3" t="n">
+        <v>43809</v>
+      </c>
+      <c r="L1" s="3" t="n">
+        <v>43810</v>
+      </c>
+      <c r="M1" s="3" t="n">
+        <v>43811</v>
+      </c>
+      <c r="N1" s="3" t="n">
+        <v>43812</v>
+      </c>
+      <c r="O1" s="3" t="n">
+        <v>43813</v>
+      </c>
+      <c r="P1" s="3" t="n">
+        <v>43814</v>
+      </c>
+      <c r="Q1" s="3" t="n">
+        <v>43815</v>
+      </c>
+      <c r="R1" s="3" t="n">
+        <v>43816</v>
+      </c>
+      <c r="S1" s="3" t="n">
+        <v>43817</v>
+      </c>
+      <c r="T1" s="3" t="n">
+        <v>43818</v>
+      </c>
+      <c r="U1" s="3" t="n">
+        <v>43819</v>
+      </c>
+      <c r="V1" s="3" t="n">
+        <v>43820</v>
+      </c>
+      <c r="W1" s="3" t="n">
+        <v>43821</v>
+      </c>
+      <c r="X1" s="3" t="n">
+        <v>43822</v>
+      </c>
+      <c r="Y1" s="3" t="n">
+        <v>43823</v>
+      </c>
+      <c r="Z1" s="3" t="n">
+        <v>43824</v>
+      </c>
+      <c r="AA1" s="3" t="n">
+        <v>43825</v>
+      </c>
+      <c r="AB1" s="3" t="n">
+        <v>43826</v>
+      </c>
+      <c r="AC1" s="3" t="n">
+        <v>43827</v>
+      </c>
+      <c r="AD1" s="3" t="n">
+        <v>43828</v>
+      </c>
+      <c r="AE1" s="3" t="n">
+        <v>43829</v>
+      </c>
+      <c r="AF1" s="3" t="n">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Ghulam Muhammad</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>Muhammad Abdullah Bilal</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>Muhammad Umer Zia</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>Noor-ul-Huda</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>Osama Akhtar</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:AF7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="25" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" width="24.88671875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="3">
+    <row customFormat="1" r="1" s="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Names/Dates:</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="n">
         <v>43800</v>
       </c>
-      <c r="C1" s="3">
+      <c r="C1" s="3" t="n">
         <v>43801</v>
       </c>
-      <c r="D1" s="3">
+      <c r="D1" s="3" t="n">
         <v>43802</v>
       </c>
-      <c r="E1" s="3">
+      <c r="E1" s="3" t="n">
         <v>43803</v>
       </c>
-      <c r="F1" s="3">
+      <c r="F1" s="3" t="n">
         <v>43804</v>
       </c>
-      <c r="G1" s="3">
+      <c r="G1" s="3" t="n">
         <v>43805</v>
       </c>
-      <c r="H1" s="3">
+      <c r="H1" s="3" t="n">
         <v>43806</v>
       </c>
-      <c r="I1" s="3">
+      <c r="I1" s="3" t="n">
         <v>43807</v>
       </c>
-      <c r="J1" s="3">
+      <c r="J1" s="3" t="n">
         <v>43808</v>
       </c>
-      <c r="K1" s="3">
+      <c r="K1" s="3" t="n">
         <v>43809</v>
       </c>
-      <c r="L1" s="3">
+      <c r="L1" s="3" t="n">
         <v>43810</v>
       </c>
-      <c r="M1" s="3">
+      <c r="M1" s="3" t="n">
         <v>43811</v>
       </c>
-      <c r="N1" s="3">
+      <c r="N1" s="3" t="n">
         <v>43812</v>
       </c>
-      <c r="O1" s="3">
+      <c r="O1" s="3" t="n">
         <v>43813</v>
       </c>
-      <c r="P1" s="3">
+      <c r="P1" s="3" t="n">
         <v>43814</v>
       </c>
-      <c r="Q1" s="3">
+      <c r="Q1" s="3" t="n">
         <v>43815</v>
       </c>
-      <c r="R1" s="3">
+      <c r="R1" s="3" t="n">
         <v>43816</v>
       </c>
-      <c r="S1" s="3">
+      <c r="S1" s="3" t="n">
         <v>43817</v>
       </c>
-      <c r="T1" s="3">
+      <c r="T1" s="3" t="n">
         <v>43818</v>
       </c>
-      <c r="U1" s="3">
+      <c r="U1" s="3" t="n">
         <v>43819</v>
       </c>
-      <c r="V1" s="3">
+      <c r="V1" s="3" t="n">
         <v>43820</v>
       </c>
-      <c r="W1" s="3">
+      <c r="W1" s="3" t="n">
         <v>43821</v>
       </c>
-      <c r="X1" s="3">
+      <c r="X1" s="3" t="n">
         <v>43822</v>
       </c>
-      <c r="Y1" s="3">
+      <c r="Y1" s="3" t="n">
         <v>43823</v>
       </c>
-      <c r="Z1" s="3">
+      <c r="Z1" s="3" t="n">
         <v>43824</v>
       </c>
-      <c r="AA1" s="3">
+      <c r="AA1" s="3" t="n">
         <v>43825</v>
       </c>
-      <c r="AB1" s="3">
+      <c r="AB1" s="3" t="n">
         <v>43826</v>
       </c>
-      <c r="AC1" s="3">
+      <c r="AC1" s="3" t="n">
         <v>43827</v>
       </c>
-      <c r="AD1" s="3">
+      <c r="AD1" s="3" t="n">
         <v>43828</v>
       </c>
-      <c r="AE1" s="3">
+      <c r="AE1" s="3" t="n">
         <v>43829</v>
       </c>
-      <c r="AF1" s="3">
+      <c r="AF1" s="3" t="n">
         <v>43830</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Ghulam Muhammad</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>Muhammad Abdullah Bilal</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>Muhammad Umer Zia</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>Noor-ul-Huda</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>Osama Akhtar</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:AF7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" width="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="3">
+    <row customFormat="1" r="1" s="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Names/Dates:</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="n">
         <v>43800</v>
       </c>
-      <c r="C1" s="3">
+      <c r="C1" s="3" t="n">
         <v>43801</v>
       </c>
-      <c r="D1" s="3">
+      <c r="D1" s="3" t="n">
         <v>43802</v>
       </c>
-      <c r="E1" s="3">
+      <c r="E1" s="3" t="n">
         <v>43803</v>
       </c>
-      <c r="F1" s="3">
+      <c r="F1" s="3" t="n">
         <v>43804</v>
       </c>
-      <c r="G1" s="3">
+      <c r="G1" s="3" t="n">
         <v>43805</v>
       </c>
-      <c r="H1" s="3">
+      <c r="H1" s="3" t="n">
         <v>43806</v>
       </c>
-      <c r="I1" s="3">
+      <c r="I1" s="3" t="n">
         <v>43807</v>
       </c>
-      <c r="J1" s="3">
+      <c r="J1" s="3" t="n">
         <v>43808</v>
       </c>
-      <c r="K1" s="3">
+      <c r="K1" s="3" t="n">
         <v>43809</v>
       </c>
-      <c r="L1" s="3">
+      <c r="L1" s="3" t="n">
         <v>43810</v>
       </c>
-      <c r="M1" s="3">
+      <c r="M1" s="3" t="n">
         <v>43811</v>
       </c>
-      <c r="N1" s="3">
+      <c r="N1" s="3" t="n">
         <v>43812</v>
       </c>
-      <c r="O1" s="3">
+      <c r="O1" s="3" t="n">
         <v>43813</v>
       </c>
-      <c r="P1" s="3">
+      <c r="P1" s="3" t="n">
         <v>43814</v>
       </c>
-      <c r="Q1" s="3">
+      <c r="Q1" s="3" t="n">
         <v>43815</v>
       </c>
-      <c r="R1" s="3">
+      <c r="R1" s="3" t="n">
         <v>43816</v>
       </c>
-      <c r="S1" s="3">
+      <c r="S1" s="3" t="n">
         <v>43817</v>
       </c>
-      <c r="T1" s="3">
+      <c r="T1" s="3" t="n">
         <v>43818</v>
       </c>
-      <c r="U1" s="3">
+      <c r="U1" s="3" t="n">
         <v>43819</v>
       </c>
-      <c r="V1" s="3">
+      <c r="V1" s="3" t="n">
         <v>43820</v>
       </c>
-      <c r="W1" s="3">
+      <c r="W1" s="3" t="n">
         <v>43821</v>
       </c>
-      <c r="X1" s="3">
+      <c r="X1" s="3" t="n">
         <v>43822</v>
       </c>
-      <c r="Y1" s="3">
+      <c r="Y1" s="3" t="n">
         <v>43823</v>
       </c>
-      <c r="Z1" s="3">
+      <c r="Z1" s="3" t="n">
         <v>43824</v>
       </c>
-      <c r="AA1" s="3">
+      <c r="AA1" s="3" t="n">
         <v>43825</v>
       </c>
-      <c r="AB1" s="3">
+      <c r="AB1" s="3" t="n">
         <v>43826</v>
       </c>
-      <c r="AC1" s="3">
+      <c r="AC1" s="3" t="n">
         <v>43827</v>
       </c>
-      <c r="AD1" s="3">
+      <c r="AD1" s="3" t="n">
         <v>43828</v>
       </c>
-      <c r="AE1" s="3">
+      <c r="AE1" s="3" t="n">
         <v>43829</v>
       </c>
-      <c r="AF1" s="3">
+      <c r="AF1" s="3" t="n">
         <v>43830</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Ghulam Muhammad</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>Muhammad Abdullah Bilal</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>Muhammad Umer Zia</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>Noor-ul-Huda</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>Osama Akhtar</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="24" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="3">
-        <v>43800</v>
-      </c>
-      <c r="C1" s="3">
-        <v>43801</v>
-      </c>
-      <c r="D1" s="3">
-        <v>43802</v>
-      </c>
-      <c r="E1" s="3">
-        <v>43803</v>
-      </c>
-      <c r="F1" s="3">
-        <v>43804</v>
-      </c>
-      <c r="G1" s="3">
-        <v>43805</v>
-      </c>
-      <c r="H1" s="3">
-        <v>43806</v>
-      </c>
-      <c r="I1" s="3">
-        <v>43807</v>
-      </c>
-      <c r="J1" s="3">
-        <v>43808</v>
-      </c>
-      <c r="K1" s="3">
-        <v>43809</v>
-      </c>
-      <c r="L1" s="3">
-        <v>43810</v>
-      </c>
-      <c r="M1" s="3">
-        <v>43811</v>
-      </c>
-      <c r="N1" s="3">
-        <v>43812</v>
-      </c>
-      <c r="O1" s="3">
-        <v>43813</v>
-      </c>
-      <c r="P1" s="3">
-        <v>43814</v>
-      </c>
-      <c r="Q1" s="3">
-        <v>43815</v>
-      </c>
-      <c r="R1" s="3">
-        <v>43816</v>
-      </c>
-      <c r="S1" s="3">
-        <v>43817</v>
-      </c>
-      <c r="T1" s="3">
-        <v>43818</v>
-      </c>
-      <c r="U1" s="3">
-        <v>43819</v>
-      </c>
-      <c r="V1" s="3">
-        <v>43820</v>
-      </c>
-      <c r="W1" s="3">
-        <v>43821</v>
-      </c>
-      <c r="X1" s="3">
-        <v>43822</v>
-      </c>
-      <c r="Y1" s="3">
-        <v>43823</v>
-      </c>
-      <c r="Z1" s="3">
-        <v>43824</v>
-      </c>
-      <c r="AA1" s="3">
-        <v>43825</v>
-      </c>
-      <c r="AB1" s="3">
-        <v>43826</v>
-      </c>
-      <c r="AC1" s="3">
-        <v>43827</v>
-      </c>
-      <c r="AD1" s="3">
-        <v>43828</v>
-      </c>
-      <c r="AE1" s="3">
-        <v>43829</v>
-      </c>
-      <c r="AF1" s="3">
-        <v>43830</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/Attendence.xlsx
+++ b/Attendence.xlsx
@@ -1,46 +1,148 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fop project\facerecog\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="3" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="Calculus" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Fundamentals of Programming" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="English" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Discrete Maths" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Islamiat" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Physics" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Calculus" sheetId="1" r:id="rId1"/>
+    <sheet name="Fundamentals of Programming" sheetId="2" r:id="rId2"/>
+    <sheet name="English" sheetId="3" r:id="rId3"/>
+    <sheet name="Discrete Maths" sheetId="4" r:id="rId4"/>
+    <sheet name="Islamiat" sheetId="5" r:id="rId5"/>
+    <sheet name="Physics" sheetId="6" r:id="rId6"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="31">
+  <si>
+    <t>Names/Dates:</t>
+  </si>
+  <si>
+    <t>Ghulam Muhammad</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Muhammad Abdullah Bilal</t>
+  </si>
+  <si>
+    <t>Muhammad Umer Zia</t>
+  </si>
+  <si>
+    <t>Noor-ul-Huda</t>
+  </si>
+  <si>
+    <t>Osama Akhtar</t>
+  </si>
+  <si>
+    <t>Kainat Agha</t>
+  </si>
+  <si>
+    <t>Abdullah Sarfaraz</t>
+  </si>
+  <si>
+    <t>Abdullahi Ali</t>
+  </si>
+  <si>
+    <t>Ahmed Mushtaq</t>
+  </si>
+  <si>
+    <t>Ahmed Rihan</t>
+  </si>
+  <si>
+    <t>Ahsan Akbar</t>
+  </si>
+  <si>
+    <t>Aliza Qamar</t>
+  </si>
+  <si>
+    <t>Furqan Abid</t>
+  </si>
+  <si>
+    <t>Ghulam Abbas</t>
+  </si>
+  <si>
+    <t>Hamdan Ahmed</t>
+  </si>
+  <si>
+    <t>Hamza Imran</t>
+  </si>
+  <si>
+    <t>Hasan Ahmed</t>
+  </si>
+  <si>
+    <t>Hassan Abid</t>
+  </si>
+  <si>
+    <t>Hassan Rehan</t>
+  </si>
+  <si>
+    <t>Husnain Ali</t>
+  </si>
+  <si>
+    <t>Mahyar Ali</t>
+  </si>
+  <si>
+    <t>Moaaz Tameer</t>
+  </si>
+  <si>
+    <t>Mohib Ullah Khan</t>
+  </si>
+  <si>
+    <t>Muhammad Anas</t>
+  </si>
+  <si>
+    <t>Muhammad Faizan</t>
+  </si>
+  <si>
+    <t>Raja Rakshak</t>
+  </si>
+  <si>
+    <t>Safiullah</t>
+  </si>
+  <si>
+    <t>Shaheer Ahmed</t>
+  </si>
+  <si>
+    <t>Zain Mushtaq</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -56,18 +158,27 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -333,1004 +444,1589 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:AF7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AF30"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="73" zoomScaleNormal="73">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <selection sqref="A1:AF30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="1" width="25.44140625"/>
+    <col min="1" max="1" width="25.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Names/Dates:</t>
-        </is>
-      </c>
-      <c r="B1" s="3" t="n">
+    <row r="1" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3">
         <v>43800</v>
       </c>
-      <c r="C1" s="3" t="n">
+      <c r="C1" s="3">
         <v>43801</v>
       </c>
-      <c r="D1" s="3" t="n">
+      <c r="D1" s="3">
         <v>43802</v>
       </c>
-      <c r="E1" s="3" t="n">
+      <c r="E1" s="3">
         <v>43803</v>
       </c>
-      <c r="F1" s="3" t="n">
+      <c r="F1" s="3">
         <v>43804</v>
       </c>
-      <c r="G1" s="3" t="n">
+      <c r="G1" s="3">
         <v>43805</v>
       </c>
-      <c r="H1" s="3" t="n">
+      <c r="H1" s="3">
         <v>43806</v>
       </c>
-      <c r="I1" s="3" t="n">
+      <c r="I1" s="3">
         <v>43807</v>
       </c>
-      <c r="J1" s="3" t="n">
+      <c r="J1" s="3">
         <v>43808</v>
       </c>
-      <c r="K1" s="3" t="n">
+      <c r="K1" s="3">
         <v>43809</v>
       </c>
-      <c r="L1" s="3" t="n">
+      <c r="L1" s="3">
         <v>43810</v>
       </c>
-      <c r="M1" s="3" t="n">
+      <c r="M1" s="3">
         <v>43811</v>
       </c>
-      <c r="N1" s="3" t="n">
+      <c r="N1" s="3">
         <v>43812</v>
       </c>
-      <c r="O1" s="3" t="n">
+      <c r="O1" s="3">
         <v>43813</v>
       </c>
-      <c r="P1" s="3" t="n">
+      <c r="P1" s="3">
         <v>43814</v>
       </c>
-      <c r="Q1" s="3" t="n">
+      <c r="Q1" s="3">
         <v>43815</v>
       </c>
-      <c r="R1" s="3" t="n">
+      <c r="R1" s="3">
         <v>43816</v>
       </c>
-      <c r="S1" s="3" t="n">
+      <c r="S1" s="3">
         <v>43817</v>
       </c>
-      <c r="T1" s="3" t="n">
+      <c r="T1" s="3">
         <v>43818</v>
       </c>
-      <c r="U1" s="3" t="n">
+      <c r="U1" s="3">
         <v>43819</v>
       </c>
-      <c r="V1" s="3" t="n">
+      <c r="V1" s="3">
         <v>43820</v>
       </c>
-      <c r="W1" s="3" t="n">
+      <c r="W1" s="3">
         <v>43821</v>
       </c>
-      <c r="X1" s="3" t="n">
+      <c r="X1" s="3">
         <v>43822</v>
       </c>
-      <c r="Y1" s="3" t="n">
+      <c r="Y1" s="3">
         <v>43823</v>
       </c>
-      <c r="Z1" s="3" t="n">
+      <c r="Z1" s="3">
         <v>43824</v>
       </c>
-      <c r="AA1" s="3" t="n">
+      <c r="AA1" s="3">
         <v>43825</v>
       </c>
-      <c r="AB1" s="3" t="n">
+      <c r="AB1" s="3">
         <v>43826</v>
       </c>
-      <c r="AC1" s="3" t="n">
+      <c r="AC1" s="3">
         <v>43827</v>
       </c>
-      <c r="AD1" s="3" t="n">
+      <c r="AD1" s="3">
         <v>43828</v>
       </c>
-      <c r="AE1" s="3" t="n">
+      <c r="AE1" s="3">
         <v>43829</v>
       </c>
-      <c r="AF1" s="3" t="n">
+      <c r="AF1" s="3">
         <v>43830</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>Ghulam Muhammad</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>Muhammad Abdullah Bilal</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>Muhammad Umer Zia</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>Noor-ul-Huda</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>Osama Akhtar</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n"/>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:AF7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AF30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection sqref="A1:AF30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="24.44140625"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Names/Dates:</t>
-        </is>
-      </c>
-      <c r="B1" s="3" t="n">
+    <row r="1" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3">
         <v>43800</v>
       </c>
-      <c r="C1" s="3" t="n">
+      <c r="C1" s="3">
         <v>43801</v>
       </c>
-      <c r="D1" s="3" t="n">
+      <c r="D1" s="3">
         <v>43802</v>
       </c>
-      <c r="E1" s="3" t="n">
+      <c r="E1" s="3">
         <v>43803</v>
       </c>
-      <c r="F1" s="3" t="n">
+      <c r="F1" s="3">
         <v>43804</v>
       </c>
-      <c r="G1" s="3" t="n">
+      <c r="G1" s="3">
         <v>43805</v>
       </c>
-      <c r="H1" s="3" t="n">
+      <c r="H1" s="3">
         <v>43806</v>
       </c>
-      <c r="I1" s="3" t="n">
+      <c r="I1" s="3">
         <v>43807</v>
       </c>
-      <c r="J1" s="3" t="n">
+      <c r="J1" s="3">
         <v>43808</v>
       </c>
-      <c r="K1" s="3" t="n">
+      <c r="K1" s="3">
         <v>43809</v>
       </c>
-      <c r="L1" s="3" t="n">
+      <c r="L1" s="3">
         <v>43810</v>
       </c>
-      <c r="M1" s="3" t="n">
+      <c r="M1" s="3">
         <v>43811</v>
       </c>
-      <c r="N1" s="3" t="n">
+      <c r="N1" s="3">
         <v>43812</v>
       </c>
-      <c r="O1" s="3" t="n">
+      <c r="O1" s="3">
         <v>43813</v>
       </c>
-      <c r="P1" s="3" t="n">
+      <c r="P1" s="3">
         <v>43814</v>
       </c>
-      <c r="Q1" s="3" t="n">
+      <c r="Q1" s="3">
         <v>43815</v>
       </c>
-      <c r="R1" s="3" t="n">
+      <c r="R1" s="3">
         <v>43816</v>
       </c>
-      <c r="S1" s="3" t="n">
+      <c r="S1" s="3">
         <v>43817</v>
       </c>
-      <c r="T1" s="3" t="n">
+      <c r="T1" s="3">
         <v>43818</v>
       </c>
-      <c r="U1" s="3" t="n">
+      <c r="U1" s="3">
         <v>43819</v>
       </c>
-      <c r="V1" s="3" t="n">
+      <c r="V1" s="3">
         <v>43820</v>
       </c>
-      <c r="W1" s="3" t="n">
+      <c r="W1" s="3">
         <v>43821</v>
       </c>
-      <c r="X1" s="3" t="n">
+      <c r="X1" s="3">
         <v>43822</v>
       </c>
-      <c r="Y1" s="3" t="n">
+      <c r="Y1" s="3">
         <v>43823</v>
       </c>
-      <c r="Z1" s="3" t="n">
+      <c r="Z1" s="3">
         <v>43824</v>
       </c>
-      <c r="AA1" s="3" t="n">
+      <c r="AA1" s="3">
         <v>43825</v>
       </c>
-      <c r="AB1" s="3" t="n">
+      <c r="AB1" s="3">
         <v>43826</v>
       </c>
-      <c r="AC1" s="3" t="n">
+      <c r="AC1" s="3">
         <v>43827</v>
       </c>
-      <c r="AD1" s="3" t="n">
+      <c r="AD1" s="3">
         <v>43828</v>
       </c>
-      <c r="AE1" s="3" t="n">
+      <c r="AE1" s="3">
         <v>43829</v>
       </c>
-      <c r="AF1" s="3" t="n">
+      <c r="AF1" s="3">
         <v>43830</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>Ghulam Muhammad</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>Muhammad Abdullah Bilal</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>Muhammad Umer Zia</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>Noor-ul-Huda</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>Osama Akhtar</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n"/>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:AF7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AF30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection sqref="A1:AF30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="24.5546875"/>
+    <col min="1" max="1" width="24.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Names/Dates:</t>
-        </is>
-      </c>
-      <c r="B1" s="3" t="n">
+    <row r="1" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3">
         <v>43800</v>
       </c>
-      <c r="C1" s="3" t="n">
+      <c r="C1" s="3">
         <v>43801</v>
       </c>
-      <c r="D1" s="3" t="n">
+      <c r="D1" s="3">
         <v>43802</v>
       </c>
-      <c r="E1" s="3" t="n">
+      <c r="E1" s="3">
         <v>43803</v>
       </c>
-      <c r="F1" s="3" t="n">
+      <c r="F1" s="3">
         <v>43804</v>
       </c>
-      <c r="G1" s="3" t="n">
+      <c r="G1" s="3">
         <v>43805</v>
       </c>
-      <c r="H1" s="3" t="n">
+      <c r="H1" s="3">
         <v>43806</v>
       </c>
-      <c r="I1" s="3" t="n">
+      <c r="I1" s="3">
         <v>43807</v>
       </c>
-      <c r="J1" s="3" t="n">
+      <c r="J1" s="3">
         <v>43808</v>
       </c>
-      <c r="K1" s="3" t="n">
+      <c r="K1" s="3">
         <v>43809</v>
       </c>
-      <c r="L1" s="3" t="n">
+      <c r="L1" s="3">
         <v>43810</v>
       </c>
-      <c r="M1" s="3" t="n">
+      <c r="M1" s="3">
         <v>43811</v>
       </c>
-      <c r="N1" s="3" t="n">
+      <c r="N1" s="3">
         <v>43812</v>
       </c>
-      <c r="O1" s="3" t="n">
+      <c r="O1" s="3">
         <v>43813</v>
       </c>
-      <c r="P1" s="3" t="n">
+      <c r="P1" s="3">
         <v>43814</v>
       </c>
-      <c r="Q1" s="3" t="n">
+      <c r="Q1" s="3">
         <v>43815</v>
       </c>
-      <c r="R1" s="3" t="n">
+      <c r="R1" s="3">
         <v>43816</v>
       </c>
-      <c r="S1" s="3" t="n">
+      <c r="S1" s="3">
         <v>43817</v>
       </c>
-      <c r="T1" s="3" t="n">
+      <c r="T1" s="3">
         <v>43818</v>
       </c>
-      <c r="U1" s="3" t="n">
+      <c r="U1" s="3">
         <v>43819</v>
       </c>
-      <c r="V1" s="3" t="n">
+      <c r="V1" s="3">
         <v>43820</v>
       </c>
-      <c r="W1" s="3" t="n">
+      <c r="W1" s="3">
         <v>43821</v>
       </c>
-      <c r="X1" s="3" t="n">
+      <c r="X1" s="3">
         <v>43822</v>
       </c>
-      <c r="Y1" s="3" t="n">
+      <c r="Y1" s="3">
         <v>43823</v>
       </c>
-      <c r="Z1" s="3" t="n">
+      <c r="Z1" s="3">
         <v>43824</v>
       </c>
-      <c r="AA1" s="3" t="n">
+      <c r="AA1" s="3">
         <v>43825</v>
       </c>
-      <c r="AB1" s="3" t="n">
+      <c r="AB1" s="3">
         <v>43826</v>
       </c>
-      <c r="AC1" s="3" t="n">
+      <c r="AC1" s="3">
         <v>43827</v>
       </c>
-      <c r="AD1" s="3" t="n">
+      <c r="AD1" s="3">
         <v>43828</v>
       </c>
-      <c r="AE1" s="3" t="n">
+      <c r="AE1" s="3">
         <v>43829</v>
       </c>
-      <c r="AF1" s="3" t="n">
+      <c r="AF1" s="3">
         <v>43830</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>Ghulam Muhammad</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>Muhammad Abdullah Bilal</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>Muhammad Umer Zia</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>Noor-ul-Huda</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>Osama Akhtar</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n"/>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:AF7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AF30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:AF30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="25"/>
+    <col min="1" max="1" width="25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Names/Dates:</t>
-        </is>
-      </c>
-      <c r="B1" s="3" t="n">
+    <row r="1" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3">
         <v>43800</v>
       </c>
-      <c r="C1" s="3" t="n">
+      <c r="C1" s="3">
         <v>43801</v>
       </c>
-      <c r="D1" s="3" t="n">
+      <c r="D1" s="3">
         <v>43802</v>
       </c>
-      <c r="E1" s="3" t="n">
+      <c r="E1" s="3">
         <v>43803</v>
       </c>
-      <c r="F1" s="3" t="n">
+      <c r="F1" s="3">
         <v>43804</v>
       </c>
-      <c r="G1" s="3" t="n">
+      <c r="G1" s="3">
         <v>43805</v>
       </c>
-      <c r="H1" s="3" t="n">
+      <c r="H1" s="3">
         <v>43806</v>
       </c>
-      <c r="I1" s="3" t="n">
+      <c r="I1" s="3">
         <v>43807</v>
       </c>
-      <c r="J1" s="3" t="n">
+      <c r="J1" s="3">
         <v>43808</v>
       </c>
-      <c r="K1" s="3" t="n">
+      <c r="K1" s="3">
         <v>43809</v>
       </c>
-      <c r="L1" s="3" t="n">
+      <c r="L1" s="3">
         <v>43810</v>
       </c>
-      <c r="M1" s="3" t="n">
+      <c r="M1" s="3">
         <v>43811</v>
       </c>
-      <c r="N1" s="3" t="n">
+      <c r="N1" s="3">
         <v>43812</v>
       </c>
-      <c r="O1" s="3" t="n">
+      <c r="O1" s="3">
         <v>43813</v>
       </c>
-      <c r="P1" s="3" t="n">
+      <c r="P1" s="3">
         <v>43814</v>
       </c>
-      <c r="Q1" s="3" t="n">
+      <c r="Q1" s="3">
         <v>43815</v>
       </c>
-      <c r="R1" s="3" t="n">
+      <c r="R1" s="3">
         <v>43816</v>
       </c>
-      <c r="S1" s="3" t="n">
+      <c r="S1" s="3">
         <v>43817</v>
       </c>
-      <c r="T1" s="3" t="n">
+      <c r="T1" s="3">
         <v>43818</v>
       </c>
-      <c r="U1" s="3" t="n">
+      <c r="U1" s="3">
         <v>43819</v>
       </c>
-      <c r="V1" s="3" t="n">
+      <c r="V1" s="3">
         <v>43820</v>
       </c>
-      <c r="W1" s="3" t="n">
+      <c r="W1" s="3">
         <v>43821</v>
       </c>
-      <c r="X1" s="3" t="n">
+      <c r="X1" s="3">
         <v>43822</v>
       </c>
-      <c r="Y1" s="3" t="n">
+      <c r="Y1" s="3">
         <v>43823</v>
       </c>
-      <c r="Z1" s="3" t="n">
+      <c r="Z1" s="3">
         <v>43824</v>
       </c>
-      <c r="AA1" s="3" t="n">
+      <c r="AA1" s="3">
         <v>43825</v>
       </c>
-      <c r="AB1" s="3" t="n">
+      <c r="AB1" s="3">
         <v>43826</v>
       </c>
-      <c r="AC1" s="3" t="n">
+      <c r="AC1" s="3">
         <v>43827</v>
       </c>
-      <c r="AD1" s="3" t="n">
+      <c r="AD1" s="3">
         <v>43828</v>
       </c>
-      <c r="AE1" s="3" t="n">
+      <c r="AE1" s="3">
         <v>43829</v>
       </c>
-      <c r="AF1" s="3" t="n">
+      <c r="AF1" s="3">
         <v>43830</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>Ghulam Muhammad</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>Muhammad Abdullah Bilal</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>Muhammad Umer Zia</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>Noor-ul-Huda</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>Osama Akhtar</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n"/>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:AF7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AF30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection sqref="A1:AF30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="24.88671875"/>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Names/Dates:</t>
-        </is>
-      </c>
-      <c r="B1" s="3" t="n">
+    <row r="1" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3">
         <v>43800</v>
       </c>
-      <c r="C1" s="3" t="n">
+      <c r="C1" s="3">
         <v>43801</v>
       </c>
-      <c r="D1" s="3" t="n">
+      <c r="D1" s="3">
         <v>43802</v>
       </c>
-      <c r="E1" s="3" t="n">
+      <c r="E1" s="3">
         <v>43803</v>
       </c>
-      <c r="F1" s="3" t="n">
+      <c r="F1" s="3">
         <v>43804</v>
       </c>
-      <c r="G1" s="3" t="n">
+      <c r="G1" s="3">
         <v>43805</v>
       </c>
-      <c r="H1" s="3" t="n">
+      <c r="H1" s="3">
         <v>43806</v>
       </c>
-      <c r="I1" s="3" t="n">
+      <c r="I1" s="3">
         <v>43807</v>
       </c>
-      <c r="J1" s="3" t="n">
+      <c r="J1" s="3">
         <v>43808</v>
       </c>
-      <c r="K1" s="3" t="n">
+      <c r="K1" s="3">
         <v>43809</v>
       </c>
-      <c r="L1" s="3" t="n">
+      <c r="L1" s="3">
         <v>43810</v>
       </c>
-      <c r="M1" s="3" t="n">
+      <c r="M1" s="3">
         <v>43811</v>
       </c>
-      <c r="N1" s="3" t="n">
+      <c r="N1" s="3">
         <v>43812</v>
       </c>
-      <c r="O1" s="3" t="n">
+      <c r="O1" s="3">
         <v>43813</v>
       </c>
-      <c r="P1" s="3" t="n">
+      <c r="P1" s="3">
         <v>43814</v>
       </c>
-      <c r="Q1" s="3" t="n">
+      <c r="Q1" s="3">
         <v>43815</v>
       </c>
-      <c r="R1" s="3" t="n">
+      <c r="R1" s="3">
         <v>43816</v>
       </c>
-      <c r="S1" s="3" t="n">
+      <c r="S1" s="3">
         <v>43817</v>
       </c>
-      <c r="T1" s="3" t="n">
+      <c r="T1" s="3">
         <v>43818</v>
       </c>
-      <c r="U1" s="3" t="n">
+      <c r="U1" s="3">
         <v>43819</v>
       </c>
-      <c r="V1" s="3" t="n">
+      <c r="V1" s="3">
         <v>43820</v>
       </c>
-      <c r="W1" s="3" t="n">
+      <c r="W1" s="3">
         <v>43821</v>
       </c>
-      <c r="X1" s="3" t="n">
+      <c r="X1" s="3">
         <v>43822</v>
       </c>
-      <c r="Y1" s="3" t="n">
+      <c r="Y1" s="3">
         <v>43823</v>
       </c>
-      <c r="Z1" s="3" t="n">
+      <c r="Z1" s="3">
         <v>43824</v>
       </c>
-      <c r="AA1" s="3" t="n">
+      <c r="AA1" s="3">
         <v>43825</v>
       </c>
-      <c r="AB1" s="3" t="n">
+      <c r="AB1" s="3">
         <v>43826</v>
       </c>
-      <c r="AC1" s="3" t="n">
+      <c r="AC1" s="3">
         <v>43827</v>
       </c>
-      <c r="AD1" s="3" t="n">
+      <c r="AD1" s="3">
         <v>43828</v>
       </c>
-      <c r="AE1" s="3" t="n">
+      <c r="AE1" s="3">
         <v>43829</v>
       </c>
-      <c r="AF1" s="3" t="n">
+      <c r="AF1" s="3">
         <v>43830</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>Ghulam Muhammad</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>Muhammad Abdullah Bilal</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>Muhammad Umer Zia</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>Noor-ul-Huda</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>Osama Akhtar</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n"/>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:AF7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AF30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="24"/>
+    <col min="1" max="1" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Names/Dates:</t>
-        </is>
-      </c>
-      <c r="B1" s="3" t="n">
+    <row r="1" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3">
         <v>43800</v>
       </c>
-      <c r="C1" s="3" t="n">
+      <c r="C1" s="3">
         <v>43801</v>
       </c>
-      <c r="D1" s="3" t="n">
+      <c r="D1" s="3">
         <v>43802</v>
       </c>
-      <c r="E1" s="3" t="n">
+      <c r="E1" s="3">
         <v>43803</v>
       </c>
-      <c r="F1" s="3" t="n">
+      <c r="F1" s="3">
         <v>43804</v>
       </c>
-      <c r="G1" s="3" t="n">
+      <c r="G1" s="3">
         <v>43805</v>
       </c>
-      <c r="H1" s="3" t="n">
+      <c r="H1" s="3">
         <v>43806</v>
       </c>
-      <c r="I1" s="3" t="n">
+      <c r="I1" s="3">
         <v>43807</v>
       </c>
-      <c r="J1" s="3" t="n">
+      <c r="J1" s="3">
         <v>43808</v>
       </c>
-      <c r="K1" s="3" t="n">
+      <c r="K1" s="3">
         <v>43809</v>
       </c>
-      <c r="L1" s="3" t="n">
+      <c r="L1" s="3">
         <v>43810</v>
       </c>
-      <c r="M1" s="3" t="n">
+      <c r="M1" s="3">
         <v>43811</v>
       </c>
-      <c r="N1" s="3" t="n">
+      <c r="N1" s="3">
         <v>43812</v>
       </c>
-      <c r="O1" s="3" t="n">
+      <c r="O1" s="3">
         <v>43813</v>
       </c>
-      <c r="P1" s="3" t="n">
+      <c r="P1" s="3">
         <v>43814</v>
       </c>
-      <c r="Q1" s="3" t="n">
+      <c r="Q1" s="3">
         <v>43815</v>
       </c>
-      <c r="R1" s="3" t="n">
+      <c r="R1" s="3">
         <v>43816</v>
       </c>
-      <c r="S1" s="3" t="n">
+      <c r="S1" s="3">
         <v>43817</v>
       </c>
-      <c r="T1" s="3" t="n">
+      <c r="T1" s="3">
         <v>43818</v>
       </c>
-      <c r="U1" s="3" t="n">
+      <c r="U1" s="3">
         <v>43819</v>
       </c>
-      <c r="V1" s="3" t="n">
+      <c r="V1" s="3">
         <v>43820</v>
       </c>
-      <c r="W1" s="3" t="n">
+      <c r="W1" s="3">
         <v>43821</v>
       </c>
-      <c r="X1" s="3" t="n">
+      <c r="X1" s="3">
         <v>43822</v>
       </c>
-      <c r="Y1" s="3" t="n">
+      <c r="Y1" s="3">
         <v>43823</v>
       </c>
-      <c r="Z1" s="3" t="n">
+      <c r="Z1" s="3">
         <v>43824</v>
       </c>
-      <c r="AA1" s="3" t="n">
+      <c r="AA1" s="3">
         <v>43825</v>
       </c>
-      <c r="AB1" s="3" t="n">
+      <c r="AB1" s="3">
         <v>43826</v>
       </c>
-      <c r="AC1" s="3" t="n">
+      <c r="AC1" s="3">
         <v>43827</v>
       </c>
-      <c r="AD1" s="3" t="n">
+      <c r="AD1" s="3">
         <v>43828</v>
       </c>
-      <c r="AE1" s="3" t="n">
+      <c r="AE1" s="3">
         <v>43829</v>
       </c>
-      <c r="AF1" s="3" t="n">
+      <c r="AF1" s="3">
         <v>43830</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>Ghulam Muhammad</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>Muhammad Abdullah Bilal</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>Muhammad Umer Zia</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>Noor-ul-Huda</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>Osama Akhtar</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n"/>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/Attendence.xlsx
+++ b/Attendence.xlsx
@@ -646,6 +646,11 @@
           <t>Ghulam Muhammad</t>
         </is>
       </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -840,6 +845,11 @@
           <t>Osama Akhtar</t>
         </is>
       </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n"/>

--- a/Attendence.xlsx
+++ b/Attendence.xlsx
@@ -1,80 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\FRAttendanceSystem\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03412A22-9F68-4BF9-9AC4-C453869EDDA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="4" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12570" windowWidth="23250" xWindow="-105" yWindow="-105"/>
   </bookViews>
   <sheets>
-    <sheet name="Calculus" sheetId="1" r:id="rId1"/>
-    <sheet name="Fundamentals of Programming" sheetId="2" r:id="rId2"/>
-    <sheet name="English" sheetId="3" r:id="rId3"/>
-    <sheet name="Discrete Maths" sheetId="4" r:id="rId4"/>
-    <sheet name="Islamiat" sheetId="5" r:id="rId5"/>
-    <sheet name="Physics" sheetId="6" r:id="rId6"/>
+    <sheet name="Calculus" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Fundamentals of Programming" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="English" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Discrete Maths" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Islamiat" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Physics" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="8">
-  <si>
-    <t>Names/Dates:</t>
-  </si>
-  <si>
-    <t>Ghulam Muhammad</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>Muhammad Abdullah Bilal</t>
-  </si>
-  <si>
-    <t>Muhammad Umer Zia</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>Noor-ul-Huda</t>
-  </si>
-  <si>
-    <t>Osama Akhtar</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -90,27 +56,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -376,895 +333,2005 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AF30"/>
   <sheetViews>
-    <sheetView zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView workbookViewId="0" zoomScale="73" zoomScaleNormal="73">
+      <selection activeCell="A1" sqref="A1:AF30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.44140625" style="1" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" style="1" width="25.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3">
+    <row customFormat="1" r="1" s="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Names/Dates:</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="n">
         <v>43800</v>
       </c>
-      <c r="C1" s="3">
+      <c r="C1" s="3" t="n">
         <v>43801</v>
       </c>
-      <c r="D1" s="3">
+      <c r="D1" s="3" t="n">
         <v>43802</v>
       </c>
-      <c r="E1" s="3">
+      <c r="E1" s="3" t="n">
         <v>43803</v>
       </c>
-      <c r="F1" s="3">
+      <c r="F1" s="3" t="n">
         <v>43804</v>
       </c>
-      <c r="G1" s="3">
+      <c r="G1" s="3" t="n">
         <v>43805</v>
       </c>
-      <c r="H1" s="3">
+      <c r="H1" s="3" t="n">
         <v>43806</v>
       </c>
-      <c r="I1" s="3">
+      <c r="I1" s="3" t="n">
         <v>43807</v>
       </c>
-      <c r="J1" s="3">
+      <c r="J1" s="3" t="n">
         <v>43808</v>
       </c>
-      <c r="K1" s="3">
+      <c r="K1" s="3" t="n">
         <v>43809</v>
       </c>
-      <c r="L1" s="3">
+      <c r="L1" s="3" t="n">
         <v>43810</v>
       </c>
-      <c r="M1" s="3">
+      <c r="M1" s="3" t="n">
         <v>43811</v>
       </c>
-      <c r="N1" s="3">
+      <c r="N1" s="3" t="n">
         <v>43812</v>
       </c>
-      <c r="O1" s="3">
+      <c r="O1" s="3" t="n">
         <v>43813</v>
       </c>
-      <c r="P1" s="3">
+      <c r="P1" s="3" t="n">
         <v>43814</v>
       </c>
-      <c r="Q1" s="3">
+      <c r="Q1" s="3" t="n">
         <v>43815</v>
       </c>
-      <c r="R1" s="3">
+      <c r="R1" s="3" t="n">
         <v>43816</v>
       </c>
-      <c r="S1" s="3">
+      <c r="S1" s="3" t="n">
         <v>43817</v>
       </c>
-      <c r="T1" s="3">
+      <c r="T1" s="3" t="n">
         <v>43818</v>
       </c>
-      <c r="U1" s="3">
+      <c r="U1" s="3" t="n">
         <v>43819</v>
       </c>
-      <c r="V1" s="3">
+      <c r="V1" s="3" t="n">
         <v>43820</v>
       </c>
-      <c r="W1" s="3">
+      <c r="W1" s="3" t="n">
         <v>43821</v>
       </c>
-      <c r="X1" s="3">
+      <c r="X1" s="3" t="n">
         <v>43822</v>
       </c>
-      <c r="Y1" s="3">
+      <c r="Y1" s="3" t="n">
         <v>43823</v>
       </c>
-      <c r="Z1" s="3">
+      <c r="Z1" s="3" t="n">
         <v>43824</v>
       </c>
-      <c r="AA1" s="3">
+      <c r="AA1" s="3" t="n">
         <v>43825</v>
       </c>
-      <c r="AB1" s="3">
+      <c r="AB1" s="3" t="n">
         <v>43826</v>
       </c>
-      <c r="AC1" s="3">
+      <c r="AC1" s="3" t="n">
         <v>43827</v>
       </c>
-      <c r="AD1" s="3">
+      <c r="AD1" s="3" t="n">
         <v>43828</v>
       </c>
-      <c r="AE1" s="3">
+      <c r="AE1" s="3" t="n">
         <v>43829</v>
       </c>
-      <c r="AF1" s="3">
+      <c r="AF1" s="3" t="n">
         <v>43830</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="M6" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Ghulam Muhammad</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>Muhammad Abdullah Bilal</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>Muhammad Umer Zia</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>Noor-ul-Huda</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>Osama Akhtar</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>Kainat Agha</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Abdullah Sarfaraz</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Abdullahi Ali</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Ahmed Mushtaq</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Ahmed Rihan</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Ahsan Akbar</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Aliza Qamar</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Furqan Abid</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Ghulam Abbas</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Hamdan Ahmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Hamza Imran</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Hasan Ahmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Hassan Abid</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Hassan Rehan</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>Husnain Ali</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Mahyar Ali</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>Moaaz Tameer</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>Mohib Ullah Khan</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Muhammad Anas</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>Muhammad Faizan</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>Raja Rakshak</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Safiullah</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>Shaheer Ahmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>Zain Mushtaq</t>
+        </is>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AF7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AF30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:AF30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.44140625" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" width="24.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3">
+    <row customFormat="1" r="1" s="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Names/Dates:</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="n">
         <v>43800</v>
       </c>
-      <c r="C1" s="3">
+      <c r="C1" s="3" t="n">
         <v>43801</v>
       </c>
-      <c r="D1" s="3">
+      <c r="D1" s="3" t="n">
         <v>43802</v>
       </c>
-      <c r="E1" s="3">
+      <c r="E1" s="3" t="n">
         <v>43803</v>
       </c>
-      <c r="F1" s="3">
+      <c r="F1" s="3" t="n">
         <v>43804</v>
       </c>
-      <c r="G1" s="3">
+      <c r="G1" s="3" t="n">
         <v>43805</v>
       </c>
-      <c r="H1" s="3">
+      <c r="H1" s="3" t="n">
         <v>43806</v>
       </c>
-      <c r="I1" s="3">
+      <c r="I1" s="3" t="n">
         <v>43807</v>
       </c>
-      <c r="J1" s="3">
+      <c r="J1" s="3" t="n">
         <v>43808</v>
       </c>
-      <c r="K1" s="3">
+      <c r="K1" s="3" t="n">
         <v>43809</v>
       </c>
-      <c r="L1" s="3">
+      <c r="L1" s="3" t="n">
         <v>43810</v>
       </c>
-      <c r="M1" s="3">
+      <c r="M1" s="3" t="n">
         <v>43811</v>
       </c>
-      <c r="N1" s="3">
+      <c r="N1" s="3" t="n">
         <v>43812</v>
       </c>
-      <c r="O1" s="3">
+      <c r="O1" s="3" t="n">
         <v>43813</v>
       </c>
-      <c r="P1" s="3">
+      <c r="P1" s="3" t="n">
         <v>43814</v>
       </c>
-      <c r="Q1" s="3">
+      <c r="Q1" s="3" t="n">
         <v>43815</v>
       </c>
-      <c r="R1" s="3">
+      <c r="R1" s="3" t="n">
         <v>43816</v>
       </c>
-      <c r="S1" s="3">
+      <c r="S1" s="3" t="n">
         <v>43817</v>
       </c>
-      <c r="T1" s="3">
+      <c r="T1" s="3" t="n">
         <v>43818</v>
       </c>
-      <c r="U1" s="3">
+      <c r="U1" s="3" t="n">
         <v>43819</v>
       </c>
-      <c r="V1" s="3">
+      <c r="V1" s="3" t="n">
         <v>43820</v>
       </c>
-      <c r="W1" s="3">
+      <c r="W1" s="3" t="n">
         <v>43821</v>
       </c>
-      <c r="X1" s="3">
+      <c r="X1" s="3" t="n">
         <v>43822</v>
       </c>
-      <c r="Y1" s="3">
+      <c r="Y1" s="3" t="n">
         <v>43823</v>
       </c>
-      <c r="Z1" s="3">
+      <c r="Z1" s="3" t="n">
         <v>43824</v>
       </c>
-      <c r="AA1" s="3">
+      <c r="AA1" s="3" t="n">
         <v>43825</v>
       </c>
-      <c r="AB1" s="3">
+      <c r="AB1" s="3" t="n">
         <v>43826</v>
       </c>
-      <c r="AC1" s="3">
+      <c r="AC1" s="3" t="n">
         <v>43827</v>
       </c>
-      <c r="AD1" s="3">
+      <c r="AD1" s="3" t="n">
         <v>43828</v>
       </c>
-      <c r="AE1" s="3">
+      <c r="AE1" s="3" t="n">
         <v>43829</v>
       </c>
-      <c r="AF1" s="3">
+      <c r="AF1" s="3" t="n">
         <v>43830</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Ghulam Muhammad</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>Muhammad Abdullah Bilal</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>Muhammad Umer Zia</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>Noor-ul-Huda</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>Osama Akhtar</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>Kainat Agha</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Abdullah Sarfaraz</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Abdullahi Ali</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Ahmed Mushtaq</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Ahmed Rihan</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Ahsan Akbar</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Aliza Qamar</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Furqan Abid</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Ghulam Abbas</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Hamdan Ahmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Hamza Imran</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Hasan Ahmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Hassan Abid</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Hassan Rehan</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>Husnain Ali</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Mahyar Ali</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>Moaaz Tameer</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>Mohib Ullah Khan</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Muhammad Anas</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>Muhammad Faizan</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>Raja Rakshak</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Safiullah</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>Shaheer Ahmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>Zain Mushtaq</t>
+        </is>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AF7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AF30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection activeCell="A1" sqref="A1:AF30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.5546875" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" width="24.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3">
+    <row customFormat="1" r="1" s="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Names/Dates:</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="n">
         <v>43800</v>
       </c>
-      <c r="C1" s="3">
+      <c r="C1" s="3" t="n">
         <v>43801</v>
       </c>
-      <c r="D1" s="3">
+      <c r="D1" s="3" t="n">
         <v>43802</v>
       </c>
-      <c r="E1" s="3">
+      <c r="E1" s="3" t="n">
         <v>43803</v>
       </c>
-      <c r="F1" s="3">
+      <c r="F1" s="3" t="n">
         <v>43804</v>
       </c>
-      <c r="G1" s="3">
+      <c r="G1" s="3" t="n">
         <v>43805</v>
       </c>
-      <c r="H1" s="3">
+      <c r="H1" s="3" t="n">
         <v>43806</v>
       </c>
-      <c r="I1" s="3">
+      <c r="I1" s="3" t="n">
         <v>43807</v>
       </c>
-      <c r="J1" s="3">
+      <c r="J1" s="3" t="n">
         <v>43808</v>
       </c>
-      <c r="K1" s="3">
+      <c r="K1" s="3" t="n">
         <v>43809</v>
       </c>
-      <c r="L1" s="3">
+      <c r="L1" s="3" t="n">
         <v>43810</v>
       </c>
-      <c r="M1" s="3">
+      <c r="M1" s="3" t="n">
         <v>43811</v>
       </c>
-      <c r="N1" s="3">
+      <c r="N1" s="3" t="n">
         <v>43812</v>
       </c>
-      <c r="O1" s="3">
+      <c r="O1" s="3" t="n">
         <v>43813</v>
       </c>
-      <c r="P1" s="3">
+      <c r="P1" s="3" t="n">
         <v>43814</v>
       </c>
-      <c r="Q1" s="3">
+      <c r="Q1" s="3" t="n">
         <v>43815</v>
       </c>
-      <c r="R1" s="3">
+      <c r="R1" s="3" t="n">
         <v>43816</v>
       </c>
-      <c r="S1" s="3">
+      <c r="S1" s="3" t="n">
         <v>43817</v>
       </c>
-      <c r="T1" s="3">
+      <c r="T1" s="3" t="n">
         <v>43818</v>
       </c>
-      <c r="U1" s="3">
+      <c r="U1" s="3" t="n">
         <v>43819</v>
       </c>
-      <c r="V1" s="3">
+      <c r="V1" s="3" t="n">
         <v>43820</v>
       </c>
-      <c r="W1" s="3">
+      <c r="W1" s="3" t="n">
         <v>43821</v>
       </c>
-      <c r="X1" s="3">
+      <c r="X1" s="3" t="n">
         <v>43822</v>
       </c>
-      <c r="Y1" s="3">
+      <c r="Y1" s="3" t="n">
         <v>43823</v>
       </c>
-      <c r="Z1" s="3">
+      <c r="Z1" s="3" t="n">
         <v>43824</v>
       </c>
-      <c r="AA1" s="3">
+      <c r="AA1" s="3" t="n">
         <v>43825</v>
       </c>
-      <c r="AB1" s="3">
+      <c r="AB1" s="3" t="n">
         <v>43826</v>
       </c>
-      <c r="AC1" s="3">
+      <c r="AC1" s="3" t="n">
         <v>43827</v>
       </c>
-      <c r="AD1" s="3">
+      <c r="AD1" s="3" t="n">
         <v>43828</v>
       </c>
-      <c r="AE1" s="3">
+      <c r="AE1" s="3" t="n">
         <v>43829</v>
       </c>
-      <c r="AF1" s="3">
+      <c r="AF1" s="3" t="n">
         <v>43830</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Ghulam Muhammad</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>Muhammad Abdullah Bilal</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>Muhammad Umer Zia</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>Noor-ul-Huda</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>Osama Akhtar</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>Kainat Agha</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Abdullah Sarfaraz</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Abdullahi Ali</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Ahmed Mushtaq</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Ahmed Rihan</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Ahsan Akbar</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Aliza Qamar</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Furqan Abid</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Ghulam Abbas</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Hamdan Ahmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Hamza Imran</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Hasan Ahmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Hassan Abid</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Hassan Rehan</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>Husnain Ali</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Mahyar Ali</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>Moaaz Tameer</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>Mohib Ullah Khan</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Muhammad Anas</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>Muhammad Faizan</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>Raja Rakshak</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Safiullah</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>Shaheer Ahmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>Zain Mushtaq</t>
+        </is>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:AF7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AF30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection activeCell="A1" sqref="A1:AF30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" style="1" width="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3">
+    <row customFormat="1" r="1" s="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Names/Dates:</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="n">
         <v>43800</v>
       </c>
-      <c r="C1" s="3">
+      <c r="C1" s="3" t="n">
         <v>43801</v>
       </c>
-      <c r="D1" s="3">
+      <c r="D1" s="3" t="n">
         <v>43802</v>
       </c>
-      <c r="E1" s="3">
+      <c r="E1" s="3" t="n">
         <v>43803</v>
       </c>
-      <c r="F1" s="3">
+      <c r="F1" s="3" t="n">
         <v>43804</v>
       </c>
-      <c r="G1" s="3">
+      <c r="G1" s="3" t="n">
         <v>43805</v>
       </c>
-      <c r="H1" s="3">
+      <c r="H1" s="3" t="n">
         <v>43806</v>
       </c>
-      <c r="I1" s="3">
+      <c r="I1" s="3" t="n">
         <v>43807</v>
       </c>
-      <c r="J1" s="3">
+      <c r="J1" s="3" t="n">
         <v>43808</v>
       </c>
-      <c r="K1" s="3">
+      <c r="K1" s="3" t="n">
         <v>43809</v>
       </c>
-      <c r="L1" s="3">
+      <c r="L1" s="3" t="n">
         <v>43810</v>
       </c>
-      <c r="M1" s="3">
+      <c r="M1" s="3" t="n">
         <v>43811</v>
       </c>
-      <c r="N1" s="3">
+      <c r="N1" s="3" t="n">
         <v>43812</v>
       </c>
-      <c r="O1" s="3">
+      <c r="O1" s="3" t="n">
         <v>43813</v>
       </c>
-      <c r="P1" s="3">
+      <c r="P1" s="3" t="n">
         <v>43814</v>
       </c>
-      <c r="Q1" s="3">
+      <c r="Q1" s="3" t="n">
         <v>43815</v>
       </c>
-      <c r="R1" s="3">
+      <c r="R1" s="3" t="n">
         <v>43816</v>
       </c>
-      <c r="S1" s="3">
+      <c r="S1" s="3" t="n">
         <v>43817</v>
       </c>
-      <c r="T1" s="3">
+      <c r="T1" s="3" t="n">
         <v>43818</v>
       </c>
-      <c r="U1" s="3">
+      <c r="U1" s="3" t="n">
         <v>43819</v>
       </c>
-      <c r="V1" s="3">
+      <c r="V1" s="3" t="n">
         <v>43820</v>
       </c>
-      <c r="W1" s="3">
+      <c r="W1" s="3" t="n">
         <v>43821</v>
       </c>
-      <c r="X1" s="3">
+      <c r="X1" s="3" t="n">
         <v>43822</v>
       </c>
-      <c r="Y1" s="3">
+      <c r="Y1" s="3" t="n">
         <v>43823</v>
       </c>
-      <c r="Z1" s="3">
+      <c r="Z1" s="3" t="n">
         <v>43824</v>
       </c>
-      <c r="AA1" s="3">
+      <c r="AA1" s="3" t="n">
         <v>43825</v>
       </c>
-      <c r="AB1" s="3">
+      <c r="AB1" s="3" t="n">
         <v>43826</v>
       </c>
-      <c r="AC1" s="3">
+      <c r="AC1" s="3" t="n">
         <v>43827</v>
       </c>
-      <c r="AD1" s="3">
+      <c r="AD1" s="3" t="n">
         <v>43828</v>
       </c>
-      <c r="AE1" s="3">
+      <c r="AE1" s="3" t="n">
         <v>43829</v>
       </c>
-      <c r="AF1" s="3">
+      <c r="AF1" s="3" t="n">
         <v>43830</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Ghulam Muhammad</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>Muhammad Abdullah Bilal</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>Muhammad Umer Zia</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>Noor-ul-Huda</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>Osama Akhtar</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>Kainat Agha</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Abdullah Sarfaraz</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Abdullahi Ali</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Ahmed Mushtaq</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Ahmed Rihan</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Ahsan Akbar</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Aliza Qamar</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Furqan Abid</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Ghulam Abbas</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Hamdan Ahmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Hamza Imran</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Hasan Ahmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Hassan Abid</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Hassan Rehan</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>Husnain Ali</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Mahyar Ali</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>Moaaz Tameer</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>Mohib Ullah Khan</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Muhammad Anas</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>Muhammad Faizan</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>Raja Rakshak</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Safiullah</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>Shaheer Ahmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>Zain Mushtaq</t>
+        </is>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:AF7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AF30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.88671875" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" width="24.85546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3">
+    <row customFormat="1" r="1" s="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Names/Dates:</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="n">
         <v>43800</v>
       </c>
-      <c r="C1" s="3">
+      <c r="C1" s="3" t="n">
         <v>43801</v>
       </c>
-      <c r="D1" s="3">
+      <c r="D1" s="3" t="n">
         <v>43802</v>
       </c>
-      <c r="E1" s="3">
+      <c r="E1" s="3" t="n">
         <v>43803</v>
       </c>
-      <c r="F1" s="3">
+      <c r="F1" s="3" t="n">
         <v>43804</v>
       </c>
-      <c r="G1" s="3">
+      <c r="G1" s="3" t="n">
         <v>43805</v>
       </c>
-      <c r="H1" s="3">
+      <c r="H1" s="3" t="n">
         <v>43806</v>
       </c>
-      <c r="I1" s="3">
+      <c r="I1" s="3" t="n">
         <v>43807</v>
       </c>
-      <c r="J1" s="3">
+      <c r="J1" s="3" t="n">
         <v>43808</v>
       </c>
-      <c r="K1" s="3">
+      <c r="K1" s="3" t="n">
         <v>43809</v>
       </c>
-      <c r="L1" s="3">
+      <c r="L1" s="3" t="n">
         <v>43810</v>
       </c>
-      <c r="M1" s="3">
+      <c r="M1" s="3" t="n">
         <v>43811</v>
       </c>
-      <c r="N1" s="3">
+      <c r="N1" s="3" t="n">
         <v>43812</v>
       </c>
-      <c r="O1" s="3">
+      <c r="O1" s="3" t="n">
         <v>43813</v>
       </c>
-      <c r="P1" s="3">
+      <c r="P1" s="3" t="n">
         <v>43814</v>
       </c>
-      <c r="Q1" s="3">
+      <c r="Q1" s="3" t="n">
         <v>43815</v>
       </c>
-      <c r="R1" s="3">
+      <c r="R1" s="3" t="n">
         <v>43816</v>
       </c>
-      <c r="S1" s="3">
+      <c r="S1" s="3" t="n">
         <v>43817</v>
       </c>
-      <c r="T1" s="3">
+      <c r="T1" s="3" t="n">
         <v>43818</v>
       </c>
-      <c r="U1" s="3">
+      <c r="U1" s="3" t="n">
         <v>43819</v>
       </c>
-      <c r="V1" s="3">
+      <c r="V1" s="3" t="n">
         <v>43820</v>
       </c>
-      <c r="W1" s="3">
+      <c r="W1" s="3" t="n">
         <v>43821</v>
       </c>
-      <c r="X1" s="3">
+      <c r="X1" s="3" t="n">
         <v>43822</v>
       </c>
-      <c r="Y1" s="3">
+      <c r="Y1" s="3" t="n">
         <v>43823</v>
       </c>
-      <c r="Z1" s="3">
+      <c r="Z1" s="3" t="n">
         <v>43824</v>
       </c>
-      <c r="AA1" s="3">
+      <c r="AA1" s="3" t="n">
         <v>43825</v>
       </c>
-      <c r="AB1" s="3">
+      <c r="AB1" s="3" t="n">
         <v>43826</v>
       </c>
-      <c r="AC1" s="3">
+      <c r="AC1" s="3" t="n">
         <v>43827</v>
       </c>
-      <c r="AD1" s="3">
+      <c r="AD1" s="3" t="n">
         <v>43828</v>
       </c>
-      <c r="AE1" s="3">
+      <c r="AE1" s="3" t="n">
         <v>43829</v>
       </c>
-      <c r="AF1" s="3">
+      <c r="AF1" s="3" t="n">
         <v>43830</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Ghulam Muhammad</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>Muhammad Abdullah Bilal</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>Muhammad Umer Zia</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>Noor-ul-Huda</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>Osama Akhtar</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>Kainat Agha</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Abdullah Sarfaraz</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Abdullahi Ali</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Ahmed Mushtaq</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Ahmed Rihan</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Ahsan Akbar</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Aliza Qamar</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Furqan Abid</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Ghulam Abbas</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Hamdan Ahmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Hamza Imran</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Hasan Ahmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Hassan Abid</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Hassan Rehan</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>Husnain Ali</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Mahyar Ali</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>Moaaz Tameer</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>Mohib Ullah Khan</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Muhammad Anas</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>Muhammad Faizan</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>Raja Rakshak</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Safiullah</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>Shaheer Ahmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>Zain Mushtaq</t>
+        </is>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:AF7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AF30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" width="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3">
+    <row customFormat="1" r="1" s="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Names/Dates:</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="n">
         <v>43800</v>
       </c>
-      <c r="C1" s="3">
+      <c r="C1" s="3" t="n">
         <v>43801</v>
       </c>
-      <c r="D1" s="3">
+      <c r="D1" s="3" t="n">
         <v>43802</v>
       </c>
-      <c r="E1" s="3">
+      <c r="E1" s="3" t="n">
         <v>43803</v>
       </c>
-      <c r="F1" s="3">
+      <c r="F1" s="3" t="n">
         <v>43804</v>
       </c>
-      <c r="G1" s="3">
+      <c r="G1" s="3" t="n">
         <v>43805</v>
       </c>
-      <c r="H1" s="3">
+      <c r="H1" s="3" t="n">
         <v>43806</v>
       </c>
-      <c r="I1" s="3">
+      <c r="I1" s="3" t="n">
         <v>43807</v>
       </c>
-      <c r="J1" s="3">
+      <c r="J1" s="3" t="n">
         <v>43808</v>
       </c>
-      <c r="K1" s="3">
+      <c r="K1" s="3" t="n">
         <v>43809</v>
       </c>
-      <c r="L1" s="3">
+      <c r="L1" s="3" t="n">
         <v>43810</v>
       </c>
-      <c r="M1" s="3">
+      <c r="M1" s="3" t="n">
         <v>43811</v>
       </c>
-      <c r="N1" s="3">
+      <c r="N1" s="3" t="n">
         <v>43812</v>
       </c>
-      <c r="O1" s="3">
+      <c r="O1" s="3" t="n">
         <v>43813</v>
       </c>
-      <c r="P1" s="3">
+      <c r="P1" s="3" t="n">
         <v>43814</v>
       </c>
-      <c r="Q1" s="3">
+      <c r="Q1" s="3" t="n">
         <v>43815</v>
       </c>
-      <c r="R1" s="3">
+      <c r="R1" s="3" t="n">
         <v>43816</v>
       </c>
-      <c r="S1" s="3">
+      <c r="S1" s="3" t="n">
         <v>43817</v>
       </c>
-      <c r="T1" s="3">
+      <c r="T1" s="3" t="n">
         <v>43818</v>
       </c>
-      <c r="U1" s="3">
+      <c r="U1" s="3" t="n">
         <v>43819</v>
       </c>
-      <c r="V1" s="3">
+      <c r="V1" s="3" t="n">
         <v>43820</v>
       </c>
-      <c r="W1" s="3">
+      <c r="W1" s="3" t="n">
         <v>43821</v>
       </c>
-      <c r="X1" s="3">
+      <c r="X1" s="3" t="n">
         <v>43822</v>
       </c>
-      <c r="Y1" s="3">
+      <c r="Y1" s="3" t="n">
         <v>43823</v>
       </c>
-      <c r="Z1" s="3">
+      <c r="Z1" s="3" t="n">
         <v>43824</v>
       </c>
-      <c r="AA1" s="3">
+      <c r="AA1" s="3" t="n">
         <v>43825</v>
       </c>
-      <c r="AB1" s="3">
+      <c r="AB1" s="3" t="n">
         <v>43826</v>
       </c>
-      <c r="AC1" s="3">
+      <c r="AC1" s="3" t="n">
         <v>43827</v>
       </c>
-      <c r="AD1" s="3">
+      <c r="AD1" s="3" t="n">
         <v>43828</v>
       </c>
-      <c r="AE1" s="3">
+      <c r="AE1" s="3" t="n">
         <v>43829</v>
       </c>
-      <c r="AF1" s="3">
+      <c r="AF1" s="3" t="n">
         <v>43830</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Ghulam Muhammad</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>Muhammad Abdullah Bilal</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>Muhammad Umer Zia</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>Noor-ul-Huda</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>Osama Akhtar</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>Kainat Agha</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Abdullah Sarfaraz</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Abdullahi Ali</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Ahmed Mushtaq</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Ahmed Rihan</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Ahsan Akbar</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Aliza Qamar</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Furqan Abid</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Ghulam Abbas</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Hamdan Ahmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Hamza Imran</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Hasan Ahmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Hassan Abid</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Hassan Rehan</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>Husnain Ali</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Mahyar Ali</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>Moaaz Tameer</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>Mohib Ullah Khan</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Muhammad Anas</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>Muhammad Faizan</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>Raja Rakshak</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Safiullah</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>Shaheer Ahmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>Zain Mushtaq</t>
+        </is>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/Attendence.xlsx
+++ b/Attendence.xlsx
@@ -488,6 +488,11 @@
           <t>P</t>
         </is>
       </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
@@ -819,6 +824,11 @@
           <t>P</t>
         </is>
       </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
@@ -1150,6 +1160,11 @@
           <t>P</t>
         </is>
       </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
@@ -1476,6 +1491,11 @@
         </is>
       </c>
       <c r="Q6" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
         <is>
           <t>P</t>
         </is>
@@ -1831,6 +1851,11 @@
           <t>P</t>
         </is>
       </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
@@ -2161,11 +2186,21 @@
           <t>P</t>
         </is>
       </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
           <t>Kainat Agha</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>P</t>
         </is>
       </c>
     </row>

--- a/Attendence.xlsx
+++ b/Attendence.xlsx
@@ -344,7 +344,7 @@
       <selection activeCell="A1" sqref="A1:AF30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col customWidth="1" max="1" min="1" style="1" width="25.42578125"/>
   </cols>
@@ -455,6 +455,11 @@
           <t>Ghulam Muhammad</t>
         </is>
       </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -462,6 +467,11 @@
           <t>Muhammad Abdullah Bilal</t>
         </is>
       </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
@@ -469,6 +479,11 @@
           <t>Muhammad Umer Zia</t>
         </is>
       </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
@@ -476,6 +491,11 @@
           <t>Noor-ul-Huda</t>
         </is>
       </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
@@ -500,6 +520,11 @@
           <t>Kainat Agha</t>
         </is>
       </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -507,6 +532,11 @@
           <t>Abdullah Sarfaraz</t>
         </is>
       </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -514,6 +544,11 @@
           <t>Abdullahi Ali</t>
         </is>
       </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -521,6 +556,11 @@
           <t>Ahmed Mushtaq</t>
         </is>
       </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -528,6 +568,11 @@
           <t>Ahmed Rihan</t>
         </is>
       </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -535,6 +580,11 @@
           <t>Ahsan Akbar</t>
         </is>
       </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -542,6 +592,11 @@
           <t>Aliza Qamar</t>
         </is>
       </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -549,6 +604,11 @@
           <t>Furqan Abid</t>
         </is>
       </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -556,6 +616,11 @@
           <t>Ghulam Abbas</t>
         </is>
       </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -563,6 +628,11 @@
           <t>Hamdan Ahmed</t>
         </is>
       </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -570,6 +640,11 @@
           <t>Hamza Imran</t>
         </is>
       </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -577,6 +652,11 @@
           <t>Hasan Ahmed</t>
         </is>
       </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -584,6 +664,11 @@
           <t>Hassan Abid</t>
         </is>
       </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -591,6 +676,11 @@
           <t>Hassan Rehan</t>
         </is>
       </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -598,6 +688,11 @@
           <t>Husnain Ali</t>
         </is>
       </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -605,6 +700,11 @@
           <t>Mahyar Ali</t>
         </is>
       </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -612,6 +712,11 @@
           <t>Moaaz Tameer</t>
         </is>
       </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -619,6 +724,11 @@
           <t>Mohib Ullah Khan</t>
         </is>
       </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -626,6 +736,11 @@
           <t>Muhammad Anas</t>
         </is>
       </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -633,6 +748,11 @@
           <t>Muhammad Faizan</t>
         </is>
       </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -640,6 +760,11 @@
           <t>Raja Rakshak</t>
         </is>
       </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -647,11 +772,21 @@
           <t>Safiullah</t>
         </is>
       </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
           <t>Shaheer Ahmed</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -680,7 +815,7 @@
       <selection activeCell="A1" sqref="A1:AF30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col customWidth="1" max="1" min="1" width="24.42578125"/>
   </cols>
@@ -1016,7 +1151,7 @@
       <selection activeCell="A1" sqref="A1:AF30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col customWidth="1" max="1" min="1" width="24.5703125"/>
   </cols>
@@ -1351,7 +1486,7 @@
       <selection activeCell="A1" sqref="A1:AF30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col customWidth="1" max="1" min="1" style="1" width="25"/>
   </cols>
@@ -1687,7 +1822,7 @@
       <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col customWidth="1" max="1" min="1" width="24.85546875"/>
   </cols>
@@ -2042,7 +2177,7 @@
       <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col customWidth="1" max="1" min="1" width="24"/>
   </cols>

--- a/Attendence.xlsx
+++ b/Attendence.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="4" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12570" windowWidth="23250" xWindow="-105" yWindow="-105"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="13176" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
     <sheet name="Calculus" sheetId="1" state="visible" r:id="rId1"/>
@@ -340,13 +340,13 @@
   </sheetPr>
   <dimension ref="A1:AF30"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="73" zoomScaleNormal="73">
-      <selection activeCell="A1" sqref="A1:AF30"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="95" zoomScaleNormal="95">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="1" width="25.42578125"/>
+    <col customWidth="1" max="1" min="1" style="1" width="25.44140625"/>
   </cols>
   <sheetData>
     <row customFormat="1" r="1" s="1">
@@ -464,7 +464,7 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>Muhammad Abdullah Bilal</t>
+          <t>Abdullah Bilal</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
@@ -812,12 +812,12 @@
   <dimension ref="A1:AF30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:AF30"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="24.42578125"/>
+    <col customWidth="1" max="1" min="1" width="24.44140625"/>
   </cols>
   <sheetData>
     <row customFormat="1" r="1" s="1">
@@ -926,11 +926,21 @@
           <t>Ghulam Muhammad</t>
         </is>
       </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>Muhammad Abdullah Bilal</t>
+          <t>Abdullah Bilal</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -940,6 +950,11 @@
           <t>Muhammad Umer Zia</t>
         </is>
       </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
@@ -947,6 +962,11 @@
           <t>Noor-ul-Huda</t>
         </is>
       </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
@@ -964,6 +984,11 @@
           <t>P</t>
         </is>
       </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
@@ -971,6 +996,11 @@
           <t>Kainat Agha</t>
         </is>
       </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -978,6 +1008,11 @@
           <t>Abdullah Sarfaraz</t>
         </is>
       </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -985,6 +1020,11 @@
           <t>Abdullahi Ali</t>
         </is>
       </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -992,6 +1032,11 @@
           <t>Ahmed Mushtaq</t>
         </is>
       </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -999,6 +1044,11 @@
           <t>Ahmed Rihan</t>
         </is>
       </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -1006,6 +1056,11 @@
           <t>Ahsan Akbar</t>
         </is>
       </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -1013,6 +1068,11 @@
           <t>Aliza Qamar</t>
         </is>
       </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1020,6 +1080,11 @@
           <t>Furqan Abid</t>
         </is>
       </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1027,6 +1092,11 @@
           <t>Ghulam Abbas</t>
         </is>
       </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1034,6 +1104,11 @@
           <t>Hamdan Ahmed</t>
         </is>
       </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1041,6 +1116,11 @@
           <t>Hamza Imran</t>
         </is>
       </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1048,6 +1128,11 @@
           <t>Hasan Ahmed</t>
         </is>
       </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1055,6 +1140,11 @@
           <t>Hassan Abid</t>
         </is>
       </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1062,6 +1152,11 @@
           <t>Hassan Rehan</t>
         </is>
       </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1069,6 +1164,11 @@
           <t>Husnain Ali</t>
         </is>
       </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1076,6 +1176,11 @@
           <t>Mahyar Ali</t>
         </is>
       </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1083,6 +1188,11 @@
           <t>Moaaz Tameer</t>
         </is>
       </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1090,6 +1200,11 @@
           <t>Mohib Ullah Khan</t>
         </is>
       </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1097,6 +1212,11 @@
           <t>Muhammad Anas</t>
         </is>
       </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1104,6 +1224,11 @@
           <t>Muhammad Faizan</t>
         </is>
       </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1111,6 +1236,11 @@
           <t>Raja Rakshak</t>
         </is>
       </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1118,11 +1248,21 @@
           <t>Safiullah</t>
         </is>
       </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
           <t>Shaheer Ahmed</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -1148,12 +1288,12 @@
   <dimension ref="A1:AF30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:AF30"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="24.5703125"/>
+    <col customWidth="1" max="1" min="1" width="24.5546875"/>
   </cols>
   <sheetData>
     <row customFormat="1" r="1" s="1">
@@ -1266,7 +1406,7 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>Muhammad Abdullah Bilal</t>
+          <t>Abdullah Bilal</t>
         </is>
       </c>
     </row>
@@ -1483,10 +1623,10 @@
   <dimension ref="A1:AF30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:AF30"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col customWidth="1" max="1" min="1" style="1" width="25"/>
   </cols>
@@ -1601,7 +1741,7 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>Muhammad Abdullah Bilal</t>
+          <t>Abdullah Bilal</t>
         </is>
       </c>
     </row>
@@ -1631,6 +1771,11 @@
         </is>
       </c>
       <c r="S6" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
         <is>
           <t>P</t>
         </is>
@@ -1818,13 +1963,13 @@
   </sheetPr>
   <dimension ref="A1:AF30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="24.85546875"/>
+    <col customWidth="1" max="1" min="1" width="24.88671875"/>
   </cols>
   <sheetData>
     <row customFormat="1" r="1" s="1">
@@ -1942,7 +2087,7 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>Muhammad Abdullah Bilal</t>
+          <t>Abdullah Bilal</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
@@ -2174,10 +2319,10 @@
   <dimension ref="A1:AF30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col customWidth="1" max="1" min="1" width="24"/>
   </cols>
@@ -2292,7 +2437,7 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>Muhammad Abdullah Bilal</t>
+          <t>Abdullah Bilal</t>
         </is>
       </c>
     </row>

--- a/Attendence.xlsx
+++ b/Attendence.xlsx
@@ -338,10 +338,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF30"/>
+  <dimension ref="A1:AF31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="95" zoomScaleNormal="95">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -452,19 +452,19 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Ghulam Muhammad</t>
+          <t>Abdullah Bilal</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>Abdullah Bilal</t>
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Abdullah Sarfaraz</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
@@ -474,9 +474,9 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>Muhammad Umer Zia</t>
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Abdullahi Ali</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
@@ -486,9 +486,9 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>Noor-ul-Huda</t>
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Ahmed Mushtaq</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
@@ -498,26 +498,21 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>Osama Akhtar</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>P</t>
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Ahmed Rihan</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t>Kainat Agha</t>
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Ahsan Akbar</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
@@ -529,7 +524,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Abdullah Sarfaraz</t>
+          <t>Aliza Qamar</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
@@ -541,7 +536,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Abdullahi Ali</t>
+          <t>Furqan Abid</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
@@ -553,7 +548,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Ahmed Mushtaq</t>
+          <t>Ghulam Abbas</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
@@ -563,21 +558,21 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>Ahmed Rihan</t>
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>Ghulam Muhammad</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Ahsan Akbar</t>
+          <t>Hamdan Ahmed</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
@@ -589,7 +584,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Aliza Qamar</t>
+          <t>Hamza Imran</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
@@ -601,7 +596,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Furqan Abid</t>
+          <t>Hasan Ahmed</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
@@ -613,7 +608,7 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Ghulam Abbas</t>
+          <t>Hassan Abid</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
@@ -625,7 +620,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Hamdan Ahmed</t>
+          <t>Hassan Rehan</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
@@ -637,7 +632,7 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Hamza Imran</t>
+          <t>Husnain Ali</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
@@ -647,9 +642,9 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>Hasan Ahmed</t>
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>Kainat Agha</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
@@ -661,7 +656,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Hassan Abid</t>
+          <t>Mahyar Ali</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
@@ -673,7 +668,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Hassan Rehan</t>
+          <t>Moaaz Tameer</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
@@ -685,7 +680,7 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Husnain Ali</t>
+          <t>Mohib Ullah Khan</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
@@ -697,7 +692,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Mahyar Ali</t>
+          <t>Muhammad Anas</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
@@ -709,7 +704,7 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Moaaz Tameer</t>
+          <t>Muhammad Faizan</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
@@ -719,9 +714,9 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Mohib Ullah Khan</t>
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>Muhammad Umer Zia</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
@@ -731,9 +726,9 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>Muhammad Anas</t>
+      <c r="A25" s="2" t="inlineStr">
+        <is>
+          <t>Noor-ul-Huda</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
@@ -743,14 +738,24 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>Muhammad Faizan</t>
+      <c r="A26" s="2" t="inlineStr">
+        <is>
+          <t>Osama Akhtar</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>P</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>P</t>
         </is>
       </c>
     </row>
@@ -792,6 +797,13 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>Tatheer Fatima</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
         <is>
           <t>Zain Mushtaq</t>
         </is>
@@ -809,10 +821,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF30"/>
+  <dimension ref="A1:AF31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -923,7 +935,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Ghulam Muhammad</t>
+          <t>Abdullah Bilal</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
@@ -933,9 +945,9 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>Abdullah Bilal</t>
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Abdullah Sarfaraz</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
@@ -945,21 +957,21 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>Muhammad Umer Zia</t>
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Abdullahi Ali</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>Noor-ul-Huda</t>
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Ahmed Mushtaq</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
@@ -969,31 +981,21 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>Osama Akhtar</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>P</t>
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Ahmed Rihan</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t>Kainat Agha</t>
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Ahsan Akbar</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
@@ -1005,7 +1007,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Abdullah Sarfaraz</t>
+          <t>Aliza Qamar</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
@@ -1017,7 +1019,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Abdullahi Ali</t>
+          <t>Furqan Abid</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
@@ -1029,7 +1031,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Ahmed Mushtaq</t>
+          <t>Ghulam Abbas</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
@@ -1039,9 +1041,9 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>Ahmed Rihan</t>
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>Ghulam Muhammad</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
@@ -1053,7 +1055,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Ahsan Akbar</t>
+          <t>Hamdan Ahmed</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
@@ -1065,7 +1067,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Aliza Qamar</t>
+          <t>Hamza Imran</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
@@ -1077,7 +1079,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Furqan Abid</t>
+          <t>Hasan Ahmed</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
@@ -1089,7 +1091,7 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Ghulam Abbas</t>
+          <t>Hassan Abid</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
@@ -1101,7 +1103,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Hamdan Ahmed</t>
+          <t>Hassan Rehan</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
@@ -1113,7 +1115,7 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Hamza Imran</t>
+          <t>Husnain Ali</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
@@ -1123,9 +1125,9 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>Hasan Ahmed</t>
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>Kainat Agha</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
@@ -1137,7 +1139,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Hassan Abid</t>
+          <t>Mahyar Ali</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
@@ -1149,7 +1151,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Hassan Rehan</t>
+          <t>Moaaz Tameer</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
@@ -1161,7 +1163,7 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Husnain Ali</t>
+          <t>Mohib Ullah Khan</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
@@ -1173,7 +1175,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Mahyar Ali</t>
+          <t>Muhammad Anas</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
@@ -1185,7 +1187,7 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Moaaz Tameer</t>
+          <t>Muhammad Faizan</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
@@ -1195,21 +1197,21 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Mohib Ullah Khan</t>
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>Muhammad Umer Zia</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>Muhammad Anas</t>
+      <c r="A25" s="2" t="inlineStr">
+        <is>
+          <t>Noor-ul-Huda</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
@@ -1219,14 +1221,24 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>Muhammad Faizan</t>
+      <c r="A26" s="2" t="inlineStr">
+        <is>
+          <t>Osama Akhtar</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>P</t>
         </is>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
     </row>
@@ -1268,6 +1280,13 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>Tatheer Fatima</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
         <is>
           <t>Zain Mushtaq</t>
         </is>
@@ -1285,10 +1304,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF30"/>
+  <dimension ref="A1:AF31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -1399,185 +1418,185 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Ghulam Muhammad</t>
+          <t>Abdullah Bilal</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>Abdullah Bilal</t>
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Abdullah Sarfaraz</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>Muhammad Umer Zia</t>
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Abdullahi Ali</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>Noor-ul-Huda</t>
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Ahmed Mushtaq</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>Osama Akhtar</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>P</t>
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Ahmed Rihan</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t>Kainat Agha</t>
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Ahsan Akbar</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Abdullah Sarfaraz</t>
+          <t>Aliza Qamar</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Abdullahi Ali</t>
+          <t>Furqan Abid</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Ahmed Mushtaq</t>
+          <t>Ghulam Abbas</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>Ahmed Rihan</t>
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>Ghulam Muhammad</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Ahsan Akbar</t>
+          <t>Hamdan Ahmed</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Aliza Qamar</t>
+          <t>Hamza Imran</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Furqan Abid</t>
+          <t>Hasan Ahmed</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Ghulam Abbas</t>
+          <t>Hassan Abid</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Hamdan Ahmed</t>
+          <t>Hassan Rehan</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Hamza Imran</t>
+          <t>Husnain Ali</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>Hasan Ahmed</t>
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>Kainat Agha</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Hassan Abid</t>
+          <t>Mahyar Ali</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Hassan Rehan</t>
+          <t>Moaaz Tameer</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Husnain Ali</t>
+          <t>Mohib Ullah Khan</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Mahyar Ali</t>
+          <t>Muhammad Anas</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Moaaz Tameer</t>
+          <t>Muhammad Faizan</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Mohib Ullah Khan</t>
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>Muhammad Umer Zia</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>Muhammad Anas</t>
+      <c r="A25" s="2" t="inlineStr">
+        <is>
+          <t>Noor-ul-Huda</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>Muhammad Faizan</t>
+      <c r="A26" s="2" t="inlineStr">
+        <is>
+          <t>Osama Akhtar</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>P</t>
         </is>
       </c>
     </row>
@@ -1604,6 +1623,13 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>Tatheer Fatima</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
         <is>
           <t>Zain Mushtaq</t>
         </is>
@@ -1620,10 +1646,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF30"/>
+  <dimension ref="A1:AF31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -1734,190 +1760,190 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Ghulam Muhammad</t>
+          <t>Abdullah Bilal</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>Abdullah Bilal</t>
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Abdullah Sarfaraz</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>Muhammad Umer Zia</t>
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Abdullahi Ali</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>Noor-ul-Huda</t>
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Ahmed Mushtaq</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>Osama Akhtar</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>P</t>
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Ahmed Rihan</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t>Kainat Agha</t>
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Ahsan Akbar</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Abdullah Sarfaraz</t>
+          <t>Aliza Qamar</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Abdullahi Ali</t>
+          <t>Furqan Abid</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Ahmed Mushtaq</t>
+          <t>Ghulam Abbas</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>Ahmed Rihan</t>
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>Ghulam Muhammad</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Ahsan Akbar</t>
+          <t>Hamdan Ahmed</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Aliza Qamar</t>
+          <t>Hamza Imran</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Furqan Abid</t>
+          <t>Hasan Ahmed</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Ghulam Abbas</t>
+          <t>Hassan Abid</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Hamdan Ahmed</t>
+          <t>Hassan Rehan</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Hamza Imran</t>
+          <t>Husnain Ali</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>Hasan Ahmed</t>
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>Kainat Agha</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Hassan Abid</t>
+          <t>Mahyar Ali</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Hassan Rehan</t>
+          <t>Moaaz Tameer</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Husnain Ali</t>
+          <t>Mohib Ullah Khan</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Mahyar Ali</t>
+          <t>Muhammad Anas</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Moaaz Tameer</t>
+          <t>Muhammad Faizan</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Mohib Ullah Khan</t>
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>Muhammad Umer Zia</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>Muhammad Anas</t>
+      <c r="A25" s="2" t="inlineStr">
+        <is>
+          <t>Noor-ul-Huda</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>Muhammad Faizan</t>
+      <c r="A26" s="2" t="inlineStr">
+        <is>
+          <t>Osama Akhtar</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>P</t>
         </is>
       </c>
     </row>
@@ -1944,6 +1970,13 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>Tatheer Fatima</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
         <is>
           <t>Zain Mushtaq</t>
         </is>
@@ -1961,10 +1994,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF30"/>
+  <dimension ref="A1:AF31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -2075,7 +2108,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Ghulam Muhammad</t>
+          <t>Abdullah Bilal</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
@@ -2085,195 +2118,195 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>Abdullah Bilal</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>P</t>
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Abdullah Sarfaraz</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>Muhammad Umer Zia</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>P</t>
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Abdullahi Ali</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>Noor-ul-Huda</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>P</t>
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Ahmed Mushtaq</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>Osama Akhtar</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>P</t>
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Ahmed Rihan</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t>Kainat Agha</t>
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Ahsan Akbar</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Abdullah Sarfaraz</t>
+          <t>Aliza Qamar</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Abdullahi Ali</t>
+          <t>Furqan Abid</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Ahmed Mushtaq</t>
+          <t>Ghulam Abbas</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>Ahmed Rihan</t>
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>Ghulam Muhammad</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>P</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Ahsan Akbar</t>
+          <t>Hamdan Ahmed</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Aliza Qamar</t>
+          <t>Hamza Imran</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Furqan Abid</t>
+          <t>Hasan Ahmed</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Ghulam Abbas</t>
+          <t>Hassan Abid</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Hamdan Ahmed</t>
+          <t>Hassan Rehan</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Hamza Imran</t>
+          <t>Husnain Ali</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>Hasan Ahmed</t>
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>Kainat Agha</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Hassan Abid</t>
+          <t>Mahyar Ali</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Hassan Rehan</t>
+          <t>Moaaz Tameer</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Husnain Ali</t>
+          <t>Mohib Ullah Khan</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Mahyar Ali</t>
+          <t>Muhammad Anas</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Moaaz Tameer</t>
+          <t>Muhammad Faizan</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Mohib Ullah Khan</t>
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>Muhammad Umer Zia</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>P</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>Muhammad Anas</t>
+      <c r="A25" s="2" t="inlineStr">
+        <is>
+          <t>Noor-ul-Huda</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>P</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>Muhammad Faizan</t>
+      <c r="A26" s="2" t="inlineStr">
+        <is>
+          <t>Osama Akhtar</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>P</t>
         </is>
       </c>
     </row>
@@ -2300,6 +2333,13 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>Tatheer Fatima</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
         <is>
           <t>Zain Mushtaq</t>
         </is>
@@ -2316,10 +2356,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF30"/>
+  <dimension ref="A1:AF31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -2430,190 +2470,190 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Ghulam Muhammad</t>
+          <t>Abdullah Bilal</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>Abdullah Bilal</t>
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Abdullah Sarfaraz</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>Muhammad Umer Zia</t>
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Abdullahi Ali</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>Noor-ul-Huda</t>
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Ahmed Mushtaq</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>Osama Akhtar</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>P</t>
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Ahmed Rihan</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t>Kainat Agha</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>P</t>
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Ahsan Akbar</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Abdullah Sarfaraz</t>
+          <t>Aliza Qamar</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Abdullahi Ali</t>
+          <t>Furqan Abid</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Ahmed Mushtaq</t>
+          <t>Ghulam Abbas</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>Ahmed Rihan</t>
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>Ghulam Muhammad</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Ahsan Akbar</t>
+          <t>Hamdan Ahmed</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Aliza Qamar</t>
+          <t>Hamza Imran</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Furqan Abid</t>
+          <t>Hasan Ahmed</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Ghulam Abbas</t>
+          <t>Hassan Abid</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Hamdan Ahmed</t>
+          <t>Hassan Rehan</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Hamza Imran</t>
+          <t>Husnain Ali</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>Hasan Ahmed</t>
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>Kainat Agha</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>P</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Hassan Abid</t>
+          <t>Mahyar Ali</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Hassan Rehan</t>
+          <t>Moaaz Tameer</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Husnain Ali</t>
+          <t>Mohib Ullah Khan</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Mahyar Ali</t>
+          <t>Muhammad Anas</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Moaaz Tameer</t>
+          <t>Muhammad Faizan</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Mohib Ullah Khan</t>
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>Muhammad Umer Zia</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>Muhammad Anas</t>
+      <c r="A25" s="2" t="inlineStr">
+        <is>
+          <t>Noor-ul-Huda</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>Muhammad Faizan</t>
+      <c r="A26" s="2" t="inlineStr">
+        <is>
+          <t>Osama Akhtar</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>P</t>
         </is>
       </c>
     </row>
@@ -2640,6 +2680,13 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>Tatheer Fatima</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
         <is>
           <t>Zain Mushtaq</t>
         </is>

--- a/Attendence.xlsx
+++ b/Attendence.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="13176" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView activeTab="5" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="13176" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
     <sheet name="Calculus" sheetId="1" state="visible" r:id="rId1"/>
@@ -340,7 +340,7 @@
   </sheetPr>
   <dimension ref="A1:AF31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="95" zoomScaleNormal="95">
+    <sheetView workbookViewId="0" zoomScale="95" zoomScaleNormal="95">
       <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
@@ -824,7 +824,7 @@
   <dimension ref="A1:AF31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -938,11 +938,6 @@
           <t>Abdullah Bilal</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -950,11 +945,6 @@
           <t>Abdullah Sarfaraz</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -962,11 +952,6 @@
           <t>Abdullahi Ali</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -974,11 +959,6 @@
           <t>Ahmed Mushtaq</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -986,11 +966,6 @@
           <t>Ahmed Rihan</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -998,11 +973,6 @@
           <t>Ahsan Akbar</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -1010,11 +980,6 @@
           <t>Aliza Qamar</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -1022,11 +987,6 @@
           <t>Furqan Abid</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -1034,11 +994,6 @@
           <t>Ghulam Abbas</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
@@ -1046,11 +1001,6 @@
           <t>Ghulam Muhammad</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -1058,11 +1008,6 @@
           <t>Hamdan Ahmed</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -1070,11 +1015,6 @@
           <t>Hamza Imran</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1082,11 +1022,6 @@
           <t>Hasan Ahmed</t>
         </is>
       </c>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1094,11 +1029,6 @@
           <t>Hassan Abid</t>
         </is>
       </c>
-      <c r="T15" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1106,11 +1036,6 @@
           <t>Hassan Rehan</t>
         </is>
       </c>
-      <c r="T16" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1118,11 +1043,6 @@
           <t>Husnain Ali</t>
         </is>
       </c>
-      <c r="T17" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
@@ -1130,11 +1050,6 @@
           <t>Kainat Agha</t>
         </is>
       </c>
-      <c r="T18" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1142,11 +1057,6 @@
           <t>Mahyar Ali</t>
         </is>
       </c>
-      <c r="T19" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1154,11 +1064,6 @@
           <t>Moaaz Tameer</t>
         </is>
       </c>
-      <c r="T20" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1166,11 +1071,6 @@
           <t>Mohib Ullah Khan</t>
         </is>
       </c>
-      <c r="T21" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1178,11 +1078,6 @@
           <t>Muhammad Anas</t>
         </is>
       </c>
-      <c r="T22" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1190,11 +1085,6 @@
           <t>Muhammad Faizan</t>
         </is>
       </c>
-      <c r="T23" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
@@ -1202,11 +1092,6 @@
           <t>Muhammad Umer Zia</t>
         </is>
       </c>
-      <c r="T24" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
@@ -1214,11 +1099,6 @@
           <t>Noor-ul-Huda</t>
         </is>
       </c>
-      <c r="T25" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
@@ -1236,11 +1116,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="T26" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1248,11 +1123,6 @@
           <t>Raja Rakshak</t>
         </is>
       </c>
-      <c r="T27" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1260,21 +1130,11 @@
           <t>Safiullah</t>
         </is>
       </c>
-      <c r="T28" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
           <t>Shaheer Ahmed</t>
-        </is>
-      </c>
-      <c r="T29" t="inlineStr">
-        <is>
-          <t>A</t>
         </is>
       </c>
     </row>
@@ -1307,7 +1167,7 @@
   <dimension ref="A1:AF31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="U26" sqref="U26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -1421,6 +1281,11 @@
           <t>Abdullah Bilal</t>
         </is>
       </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -1428,6 +1293,11 @@
           <t>Abdullah Sarfaraz</t>
         </is>
       </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -1435,6 +1305,11 @@
           <t>Abdullahi Ali</t>
         </is>
       </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -1442,6 +1317,11 @@
           <t>Ahmed Mushtaq</t>
         </is>
       </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -1449,6 +1329,11 @@
           <t>Ahmed Rihan</t>
         </is>
       </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -1456,6 +1341,11 @@
           <t>Ahsan Akbar</t>
         </is>
       </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -1463,6 +1353,11 @@
           <t>Aliza Qamar</t>
         </is>
       </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -1470,6 +1365,11 @@
           <t>Furqan Abid</t>
         </is>
       </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -1477,6 +1377,11 @@
           <t>Ghulam Abbas</t>
         </is>
       </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
@@ -1484,6 +1389,11 @@
           <t>Ghulam Muhammad</t>
         </is>
       </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -1491,6 +1401,11 @@
           <t>Hamdan Ahmed</t>
         </is>
       </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -1498,6 +1413,11 @@
           <t>Hamza Imran</t>
         </is>
       </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1505,6 +1425,11 @@
           <t>Hasan Ahmed</t>
         </is>
       </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1512,6 +1437,11 @@
           <t>Hassan Abid</t>
         </is>
       </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1519,6 +1449,11 @@
           <t>Hassan Rehan</t>
         </is>
       </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1526,6 +1461,11 @@
           <t>Husnain Ali</t>
         </is>
       </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
@@ -1533,6 +1473,11 @@
           <t>Kainat Agha</t>
         </is>
       </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1540,6 +1485,11 @@
           <t>Mahyar Ali</t>
         </is>
       </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1547,6 +1497,11 @@
           <t>Moaaz Tameer</t>
         </is>
       </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1554,6 +1509,11 @@
           <t>Mohib Ullah Khan</t>
         </is>
       </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1561,6 +1521,11 @@
           <t>Muhammad Anas</t>
         </is>
       </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1568,6 +1533,11 @@
           <t>Muhammad Faizan</t>
         </is>
       </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
@@ -1575,6 +1545,11 @@
           <t>Muhammad Umer Zia</t>
         </is>
       </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
@@ -1582,6 +1557,11 @@
           <t>Noor-ul-Huda</t>
         </is>
       </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
@@ -1599,6 +1579,11 @@
           <t>P</t>
         </is>
       </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1606,6 +1591,11 @@
           <t>Raja Rakshak</t>
         </is>
       </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1613,6 +1603,11 @@
           <t>Safiullah</t>
         </is>
       </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1620,11 +1615,21 @@
           <t>Shaheer Ahmed</t>
         </is>
       </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
           <t>Tatheer Fatima</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>P</t>
         </is>
       </c>
     </row>
@@ -1649,7 +1654,7 @@
   <dimension ref="A1:AF31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="T26" sqref="T26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -1937,11 +1942,6 @@
         </is>
       </c>
       <c r="S26" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="T26" t="inlineStr">
         <is>
           <t>P</t>
         </is>
@@ -1997,7 +1997,7 @@
   <dimension ref="A1:AF31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="U31" sqref="U31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -2358,8 +2358,8 @@
   </sheetPr>
   <dimension ref="A1:AF31"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:A31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U30" sqref="U30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
